--- a/docs_baixados/Documentos para baixar Novo.xlsx
+++ b/docs_baixados/Documentos para baixar Novo.xlsx
@@ -81,3081 +81,5421 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>9.7325232E7</v>
+        <v>9.7334758E7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858863201_P97325232_Nota_Fiscal_1.pdf ,1712858863687_P97325232_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713985893042_P97334758_Nota_Fiscal_1.pdf ,1713985893392_P97334758_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>9.7325008E7</v>
+        <v>9.7317407E7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863471305_P97325008_Nota_Fiscal_1.PDF ,1712863471820_P97325008_Nota_Fiscal_2.PDF ,1712863472235_P97325008_Nota_Fiscal_3.Pdf ,1712863472710_P97325008_Boleto_4.PDF </t>
+          <t xml:space="preserve">1713983904049_P97317407_Nota_Fiscal_1.pdf ,1713983904420_P97317407_Boleto_2.pdf ,1713983904688_P97317407_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>9.7325041E7</v>
+        <v>9.733469E7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859353329_P97325041_Boleto_1.jpg ,1712859353616_P97325041_Nota_Fiscal_2.jpg </t>
+          <t xml:space="preserve">1713983061217_P97334690_Nota_Fiscal_1.docx ,1713983061855_P97334690_Nota_Fiscal_2.pdf ,1713983062616_P97334690_Nota_Fiscal_3.pdf ,1713983063086_P97334690_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>9.7306614E7</v>
+        <v>9.7319678E7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859159081_P97306614_Nota_Fiscal_1.jpg ,1712859159402_P97306614_Boleto_2.jpg ,1712859159771_P97306614_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713985722250_P97319678_Nota_Fiscal_1.jpg ,1713985723231_P97319678_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>9.7325032E7</v>
+        <v>9.7334656E7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859216350_P97325032_Nota_Fiscal_1.jpg ,1712859216961_P97325032_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713990270546_P97334656_Nota_Fiscal_1.jpg ,1713990271897_P97334656_Boleto_2.jpg ,1713990273200_P97334656_Boleto_3.jpg ,1713990274720_P97334656_Boleto_4.jpg </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>9.7325027E7</v>
+        <v>9.7319638E7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859089495_P97325027_Nota_Fiscal_1.pdf ,1712859089822_P97325027_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713990048385_P97319638_Nota_Fiscal_1.pdf ,1713990049805_P97319638_Outro_Documento_2.pdf ,1713990050088_P97319638_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>9.7271117E7</v>
+        <v>9.7334644E7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858702922_P97271117_Nota_Fiscal_1.jpg ,1712858703558_P97271117_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713989944736_P97334644_Nota_Fiscal_1.pdf ,1713989945034_P97334644_Boleto_2.pdf ,1713989945384_P97334644_opção_SIMPLES_3.pdf ,1713989945786_P97334644_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>9.7325289E7</v>
+        <v>9.7319497E7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860675707_P97325289_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713987194895_P97319497_Nota_Fiscal_1.jpg ,1713987196997_P97319497_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>9.7325004E7</v>
+        <v>9.7313333E7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863273875_P97325004_Boleto_1.PDF </t>
+          <t xml:space="preserve">1713987125251_P97313333_Boleto_1.pdf ,1713987125529_P97313333_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>9.7325E7</v>
+        <v>9.7334612E7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862356213_P97325000_Boleto_1.pdf ,1712862357237_P97325000_Nota_Fiscal_2.pdf ,1712862357870_P97325000_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713983425477_P97334612_Outro_Documento_1.jpg ,1713983426175_P97334612_Nota_Fiscal_2.jpg ,1713983426930_P97334612_Nota_Fiscal_3.jpg ,1713983427969_P97334612_Nota_Fiscal_4.jpg </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>9.7325316E7</v>
+        <v>9.7334636E7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861553191_P97325316_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713981490657_P97334636_Nota_Fiscal_1.pdf ,1713981491201_P97334636_Nota_Fiscal_2.pdf ,1713981492196_P97334636_Boleto_3.pdf ,1713981492706_P97334636_Orçamento_4.pdf ,1713981493158_P97334636_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>9.7324997E7</v>
+        <v>9.7334603E7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861949344_P97324997_Nota_Fiscal_1.pdf ,1712861950299_P97324997_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713981483090_P97334603_Nota_Fiscal_1.pdf ,1713981483554_P97334603_Nota_Fiscal_2.pdf ,1713981484165_P97334603_Boleto_3.pdf ,1713981484998_P97334603_Orçamento_4.pdf ,1713981485935_P97334603_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>9.7325322E7</v>
+        <v>9.7314799E7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862268883_P97325322_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713987286172_P97314799_Boleto_1.pdf ,1713987286816_P97314799_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>9.7324985E7</v>
+        <v>9.7314845E7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861821360_P97324985_Nota_Fiscal_1.pdf ,1712861822607_P97324985_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713987161280_P97314845_Boleto_1.pdf ,1713987161556_P97314845_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>9.732498E7</v>
+        <v>9.733459E7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861677895_P97324980_Nota_Fiscal_1.pdf ,1712861678290_P97324980_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713978045692_P97334590_Nota_Fiscal_1.pdf ,1713978046362_P97334590_Outro_Documento_2.docx </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>9.7306064E7</v>
+        <v>9.7314767E7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855378186_P97306064_Nota_Fiscal_1.pdf ,1712855379025_P97306064_Boleto_2.pdf ,1712855379330_P97306064_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986998256_P97314767_Boleto_1.pdf ,1713986998525_P97314767_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>9.7324973E7</v>
+        <v>9.7314835E7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856721532_P97324973_Nota_Fiscal_1.jpg ,1712856722236_P97324973_Boleto_2.jpg ,1712856722599_P97324973_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986942696_P97314835_Boleto_1.pdf ,1713986942981_P97314835_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>9.732496E7</v>
+        <v>9.7314818E7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855291600_P97324960_Nota_Fiscal_1.jpg ,1712855292120_P97324960_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713986704469_P97314818_Boleto_1.pdf ,1713986704721_P97314818_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>9.7325306E7</v>
+        <v>9.7334628E7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856474110_P97325306_Nota_Fiscal_1.pdf ,1712856474691_P97325306_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713983921955_P97334628_Nota_Fiscal_1.pdf ,1713983922234_P97334628_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>9.7325299E7</v>
+        <v>9.7334625E7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853638022_P97325299_Boleto_1.pdf ,1712853638555_P97325299_Orçamento_2.pdf </t>
+          <t xml:space="preserve">1713972440014_P97334625_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>9.7325329E7</v>
+        <v>9.7334618E7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863113106_P97325329_Outro_Documento_1.jpg ,1712863113689_P97325329_Outro_Documento_2.jpg ,1712863115347_P97325329_Outro_Documento_3.jpg ,1712863116223_P97325329_Outro_Documento_4.jpg ,1712863117087_P97325329_Outro_Documento_5.jpg ,1712863117562_P97325329_Outro_Documento_6.jpg ,1712863118192_P97325329_Outro_Documento_7.jpg ,1712863118758_P97325329_Outro_Documento_8.jpg </t>
+          <t xml:space="preserve">1713986064482_P97334618_Nota_Fiscal_1.jpg ,1713986089052_P97334618_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>9.7307667E7</v>
+        <v>9.7334608E7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854838590_P97307667_Nota_Fiscal_1.jpg ,1712854839712_P97307667_Outro_Documento_2.jpg ,1712854840845_P97307667_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986481447_P97334608_opção_SIMPLES_1.pdf ,1713986481774_P97334608_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>9.7325264E7</v>
+        <v>9.7334352E7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856586479_P97325264_opção_SIMPLES_1.pdf ,1712856587083_P97325264_Nota_Fiscal_2.jpg ,1712856588217_P97325264_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713987545604_P97334352_Nota_Fiscal_1.pdf ,1713987546075_P97334352_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>9.732525E7</v>
+        <v>9.7334531E7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859523334_P97325250_Boleto_1.pdf ,1712859523948_P97325250_Outro_Documento_2.docx </t>
+          <t xml:space="preserve">1713980844439_P97334531_Nota_Fiscal_1.pdf ,1713980845408_P97334531_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>9.7325248E7</v>
+        <v>9.7334525E7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856118755_P97325248_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713983918129_P97334525_Nota_Fiscal_1.pdf ,1713983918492_P97334525_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>9.7325205E7</v>
+        <v>9.7334649E7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856534039_P97325205_Nota_Fiscal_1.pdf ,1712856534801_P97325205_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713978244199_P97334649_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>9.7307145E7</v>
+        <v>9.7334647E7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860273389_P97307145_Nota_Fiscal_1.jpg ,1712860274221_P97307145_Boleto_2.jpg ,1712860274676_P97307145_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713978151761_P97334647_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>9.7325187E7</v>
+        <v>9.7334345E7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860387232_P97325187_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713985846671_P97334345_Nota_Fiscal_1.pdf ,1713985847101_P97334345_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>9.7325296E7</v>
+        <v>9.7334342E7</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859386006_P97325296_Boleto_1.pdf ,1712859386623_P97325296_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713987546105_P97334342_Nota_Fiscal_1.pdf ,1713987546745_P97334342_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>9.7325295E7</v>
+        <v>9.7334326E7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859351658_P97325295_Boleto_1.pdf ,1712859352064_P97325295_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713987503242_P97334326_Nota_Fiscal_1.pdf ,1713987503545_P97334326_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>9.7325292E7</v>
+        <v>9.7314832E7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859315709_P97325292_Boleto_1.pdf ,1712859316062_P97325292_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713986763463_P97314832_Boleto_1.pdf ,1713986766098_P97314832_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>9.7325288E7</v>
+        <v>9.7334301E7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859271124_P97325288_Boleto_1.pdf ,1712859271522_P97325288_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713984199249_P97334301_Nota_Fiscal_1.pdf ,1713984200895_P97334301_Nota_Fiscal_2.jpg ,1713984203298_P97334301_Nota_Fiscal_3.jpg ,1713984206011_P97334301_Nota_Fiscal_4.jpg </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>9.7325309E7</v>
+        <v>9.7334332E7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859229406_P97325309_Boleto_1.pdf ,1712859234488_P97325309_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713985691175_P97334332_Outro_Documento_1.png ,1713985691945_P97334332_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>9.7325311E7</v>
+        <v>9.7334312E7</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859188546_P97325311_Boleto_1.pdf ,1712859189020_P97325311_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713981478631_P97334312_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>9.7325315E7</v>
+        <v>9.7334265E7</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858427899_P97325315_Boleto_1.pdf ,1712858428234_P97325315_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713986014759_P97334265_Nota_Fiscal_1.PNG ,1713986015284_P97334265_Boleto_2.JPG ,1713986015633_P97334265_Boleto_3.JPG ,1713986016011_P97334265_Boleto_4.JPG ,1713986016327_P97334265_Boleto_5.JPG ,1713986016551_P97334265_opção_SIMPLES_6.pdf </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>9.7325323E7</v>
+        <v>9.7334251E7</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858385979_P97325323_Boleto_1.pdf ,1712858386335_P97325323_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713980441831_P97334251_Nota_Fiscal_1.pdf ,1713980442383_P97334251_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>9.7325321E7</v>
+        <v>9.7334177E7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858347632_P97325321_Boleto_1.pdf ,1712858347985_P97325321_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713973607890_P97334177_Nota_Fiscal_1.pdf ,1713973608777_P97334177_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>9.7325319E7</v>
+        <v>9.7334145E7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858320779_P97325319_Boleto_1.pdf ,1712858321088_P97325319_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713987222710_P97334145_Boleto_1.pdf ,1713987223134_P97334145_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>9.732502E7</v>
+        <v>9.7334153E7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857866693_P97325020_Nota_Fiscal_1.pdf ,1712857867537_P97325020_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713973831061_P97334153_Outro_Documento_1.jpg ,1713973831881_P97334153_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>9.7325011E7</v>
+        <v>9.7334209E7</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857618705_P97325011_Boleto_1.pdf ,1712857619017_P97325011_Nota_Fiscal_2.pdf ,1712857621879_P97325011_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713980120100_P97334209_Nota_Fiscal_1.pdf ,1713980120396_P97334209_Boleto_2.pdf ,1713980120686_P97334209_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>9.7325018E7</v>
+        <v>9.7310227E7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857735249_P97325018_Boleto_1.pdf ,1712857735783_P97325018_Nota_Fiscal_2.pdf ,1712857736384_P97325018_Outro_Documento_3.pdf ,1712857737258_P97325018_Outro_Documento_4.pdf ,1712857737903_P97325018_opção_SIMPLES_5.pdf </t>
+          <t xml:space="preserve">1713987362573_P97310227_Boleto_1.pdf ,1713987362966_P97310227_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>9.7325013E7</v>
+        <v>9.7334552E7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857683130_P97325013_Boleto_1.pdf ,1712857683421_P97325013_Nota_Fiscal_2.pdf ,1712857683765_P97325013_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713979646002_P97334552_Nota_Fiscal_1.jpg ,1713979647513_P97334552_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>9.7325175E7</v>
+        <v>9.7310187E7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854888826_P97325175_Nota_Fiscal_1.pdf ,1712854889315_P97325175_Boleto_2.pdf ,1712854889705_P97325175_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713987256283_P97310187_Boleto_1.pdf ,1713987256546_P97310187_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>9.7325255E7</v>
+        <v>9.7314823E7</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861138738_P97325255_Nota_Fiscal_1.jpg ,1712861139276_P97325255_Nota_Fiscal_2.jpg ,1712861139804_P97325255_Nota_Fiscal_3.jpg </t>
+          <t xml:space="preserve">1713981469989_P97314823_Boleto_1.pdf ,1713981472897_P97314823_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>9.7325023E7</v>
+        <v>9.7334138E7</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858066051_P97325023_Nota_Fiscal_1.pdf ,1712858066829_P97325023_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713979584131_P97334138_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>9.7325034E7</v>
+        <v>9.7334187E7</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852859983_P97325034_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713977632697_P97334187_Nota_Fiscal_1.pdf ,1713977633162_P97334187_Outro_Documento_2.docx </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>9.732514E7</v>
+        <v>9.7334243E7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857530163_P97325140_Boleto_1.pdf ,1712857530919_P97325140_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713980070565_P97334243_Nota_Fiscal_1.pdf ,1713980070970_P97334243_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>9.7325054E7</v>
+        <v>9.7334127E7</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862957599_P97325054_Boleto_1.pdf ,1712862958652_P97325054_Nota_Fiscal_2.pdf ,1712862959450_P97325054_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713980230135_P97334127_Nota_Fiscal_1.pdf ,1713980230511_P97334127_Boleto_2.pdf ,1713980230844_P97334127_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>9.7325024E7</v>
+        <v>9.7334205E7</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854063722_P97325024_Boleto_1.pdf ,1712854064235_P97325024_Nota_Fiscal_2.pdf ,1712854064622_P97325024_Orçamento_3.JPG </t>
+          <t xml:space="preserve">1713980724446_P97334205_Nota_Fiscal_1.pdf ,1713980725266_P97334205_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>9.732509E7</v>
+        <v>9.7314737E7</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863641374_P97325090_Nota_Fiscal_1.pdf ,1712863641595_P97325090_Nota_Fiscal_2.pdf ,1712863641871_P97325090_Boleto_3.pdf ,1712863642179_P97325090_Boleto_4.pdf ,1712863642577_P97325090_Outro_Documento_5.pdf </t>
+          <t xml:space="preserve">1713987078489_P97314737_Boleto_1.pdf ,1713987078853_P97314737_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>9.7325083E7</v>
+        <v>9.7314796E7</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863608059_P97325083_Nota_Fiscal_1.pdf ,1712863608539_P97325083_Nota_Fiscal_2.pdf ,1712863609450_P97325083_Boleto_3.pdf ,1712863611666_P97325083_Boleto_4.pdf ,1712863613411_P97325083_Outro_Documento_5.pdf </t>
+          <t xml:space="preserve">1713986952968_P97314796_Boleto_1.pdf ,1713986953231_P97314796_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>9.7325085E7</v>
+        <v>9.7314813E7</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863710737_P97325085_Nota_Fiscal_1.pdf ,1712863711139_P97325085_Nota_Fiscal_2.pdf ,1712863711406_P97325085_Boleto_3.pdf ,1712863711883_P97325085_Boleto_4.pdf ,1712863712227_P97325085_Outro_Documento_5.pdf </t>
+          <t xml:space="preserve">1713986832569_P97314813_Boleto_1.pdf ,1713986833177_P97314813_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>9.7325082E7</v>
+        <v>9.7311804E7</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863675290_P97325082_Nota_Fiscal_1.pdf ,1712863675777_P97325082_Nota_Fiscal_2.pdf ,1712863676153_P97325082_Boleto_3.pdf ,1712863676539_P97325082_Boleto_4.pdf ,1712863676872_P97325082_Outro_Documento_5.pdf </t>
+          <t xml:space="preserve">1713986699667_P97311804_Boleto_1.pdf ,1713986700107_P97311804_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>9.7325101E7</v>
+        <v>9.7311799E7</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858858072_P97325101_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713986643901_P97311799_Boleto_1.pdf ,1713986644215_P97311799_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>9.732518E7</v>
+        <v>9.7314745E7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858476231_P97325180_opção_SIMPLES_1.pdf ,1712858477513_P97325180_Nota_Fiscal_2.jpg </t>
+          <t xml:space="preserve">1713986541109_P97314745_Boleto_1.pdf ,1713986541526_P97314745_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>9.7325016E7</v>
+        <v>9.7313528E7</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712846990240_P97325016_Nota_Fiscal_1.pdf ,1712846991093_P97325016_Outro_Documento_2.pdf ,1712846991517_P97325016_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986476330_P97313528_Boleto_1.pdf ,1713986476670_P97313528_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>9.7325006E7</v>
+        <v>9.7312537E7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854306466_P97325006_Nota_Fiscal_1.pdf ,1712854306809_P97325006_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713984854909_P97312537_Boleto_1.pdf ,1713984855294_P97312537_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>9.732504E7</v>
+        <v>9.7312532E7</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854218919_P97325040_Outro_Documento_1.pdf ,1712854219347_P97325040_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713985759279_P97312532_Boleto_1.pdf ,1713985759731_P97312532_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>9.7325167E7</v>
+        <v>9.7311985E7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860203016_P97325167_Outro_Documento_1.pdf ,1712860204382_P97325167_Nota_Fiscal_2.jpg ,1712860205699_P97325167_Nota_Fiscal_3.jpg </t>
+          <t xml:space="preserve">1713980385891_P97311985_Boleto_1.pdf ,1713980386197_P97311985_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>9.7325066E7</v>
+        <v>9.7314777E7</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853127622_P97325066_Nota_Fiscal_1.pdf ,1712853128355_P97325066_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713979737130_P97314777_Boleto_1.pdf ,1713979737402_P97314777_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>9.7325047E7</v>
+        <v>9.7311997E7</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854346844_P97325047_Nota_Fiscal_1.pdf ,1712854347519_P97325047_Boleto_2.pdf ,1712854347925_P97325047_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713984248413_P97311997_Boleto_1.pdf ,1713984249126_P97311997_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>9.7325068E7</v>
+        <v>9.7314715E7</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847186928_P97325068_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713986389779_P97314715_Boleto_1.pdf ,1713986390093_P97314715_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>9.7325158E7</v>
+        <v>9.7314804E7</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861617296_P97325158_Boleto_1.pdf ,1712861617598_P97325158_Nota_Fiscal_2.pdf ,1712861618044_P97325158_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713986754387_P97314804_Boleto_1.pdf ,1713986754652_P97314804_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>9.7325163E7</v>
+        <v>9.7314704E7</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858799839_P97325163_Nota_Fiscal_1.jpg ,1712858800601_P97325163_Boleto_2.jpg ,1712858801254_P97325163_Boleto_3.jpg </t>
+          <t xml:space="preserve">1713981236756_P97314704_Boleto_1.pdf ,1713981237113_P97314704_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>9.7325197E7</v>
+        <v>9.7312541E7</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852763778_P97325197_Nota_Fiscal_1.pdf ,1712852764215_P97325197_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713984922318_P97312541_Boleto_1.pdf ,1713984922571_P97312541_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>9.7324958E7</v>
+        <v>9.7312641E7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855125683_P97324958_Boleto_1.pdf ,1712855126482_P97324958_Outro_Documento_2.pdf ,1712855126874_P97324958_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713983596085_P97312641_Boleto_1.jpg ,1713983596718_P97312641_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>9.7324949E7</v>
+        <v>9.7309723E7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854993966_P97324949_Nota_Fiscal_1.jpg ,1712854994427_P97324949_Boleto_2.jpg ,1712854995240_P97324949_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713984813925_P97309723_Nota_Fiscal_1.pdf ,1713984814671_P97309723_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>9.7306503E7</v>
+        <v>9.7314698E7</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853734104_P97306503_Nota_Fiscal_1.pdf ,1712853734973_P97306503_Boleto_2.pdf ,1712853735838_P97306503_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986158647_P97314698_Nota_Fiscal_1.jpg ,1713986159263_P97314698_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>9.7325304E7</v>
+        <v>9.7334524E7</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858294266_P97325304_Boleto_1.pdf ,1712858294829_P97325304_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713972890371_P97334524_Nota_Fiscal_1.pdf ,1713972890991_P97334524_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>9.730232E7</v>
+        <v>9.7334392E7</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861168773_P97302320_Nota_Fiscal_1.pdf ,1712861169067_P97302320_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713983929641_P97334392_Nota_Fiscal_1.jpg ,1713983931094_P97334392_Nota_Fiscal_2.jpg ,1713983931794_P97334392_Nota_Fiscal_3.jpg ,1713983932577_P97334392_Boleto_4.jpg ,1713983933686_P97334392_Boleto_5.jpg ,1713983934588_P97334392_Boleto_6.jpg ,1713983935092_P97334392_opção_SIMPLES_7.pdf </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>9.7306763E7</v>
+        <v>9.7334384E7</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856723035_P97306763_Nota_Fiscal_1.pdf ,1712856723334_P97306763_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713983876013_P97334384_Nota_Fiscal_1.jpg ,1713983877534_P97334384_Nota_Fiscal_2.jpg ,1713983879035_P97334384_Nota_Fiscal_3.jpg ,1713983880369_P97334384_Boleto_4.jpg ,1713983881692_P97334384_Boleto_5.jpg ,1713983886502_P97334384_Boleto_6.jpg ,1713983887898_P97334384_opção_SIMPLES_7.pdf </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>9.7325109E7</v>
+        <v>9.7334294E7</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854644955_P97325109_Nota_Fiscal_1.pdf ,1712854645325_P97325109_Boleto_2.pdf ,1712854645720_P97325109_Boleto_3.pdf ,1712854646101_P97325109_Boleto_4.pdf ,1712854646381_P97325109_Boleto_5.pdf ,1712854646974_P97325109_Boleto_6.pdf ,1712854647629_P97325109_Boleto_7.pdf </t>
+          <t xml:space="preserve">1713983210443_P97334294_Nota_Fiscal_1.pdf ,1713983210869_P97334294_Boleto_2.pdf ,1713983211144_P97334294_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>9.7298646E7</v>
+        <v>9.7334293E7</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860458893_P97298646_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713979045865_P97334293_Boleto_1.pdf ,1713979046532_P97334293_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>9.732505E7</v>
+        <v>9.7334269E7</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854107324_P97325050_Boleto_1.pdf ,1712854107738_P97325050_Nota_Fiscal_2.pdf ,1712854108150_P97325050_Orçamento_3.JPG </t>
+          <t xml:space="preserve">1713985931139_P97334269_Nota_Fiscal_1.PNG ,1713985931515_P97334269_Boleto_2.PNG ,1713985931960_P97334269_Boleto_3.PNG ,1713985932396_P97334269_Boleto_4.PNG ,1713985932663_P97334269_opção_SIMPLES_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>9.7325061E7</v>
+        <v>9.7314652E7</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855428949_P97325061_Nota_Fiscal_1.pdf ,1712855431414_P97325061_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713984881112_P97314652_Boleto_1.jpg ,1713984881411_P97314652_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>9.7325042E7</v>
+        <v>9.7313539E7</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854752816_P97325042_Nota_Fiscal_1.pdf ,1712854753553_P97325042_Outro_Documento_2.pdf ,1712854754087_P97325042_Outro_Documento_3.pdf ,1712854754843_P97325042_Outro_Documento_4.pdf </t>
+          <t xml:space="preserve">1713986413026_P97313539_Boleto_1.pdf ,1713986413314_P97313539_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>9.732499E7</v>
+        <v>9.7314647E7</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853865012_P97324990_Nota_Fiscal_1.pdf ,1712853865483_P97324990_Boleto_2.pdf ,1712853865864_P97324990_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986362715_P97314647_Boleto_1.pdf ,1713986362936_P97314647_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>9.7324963E7</v>
+        <v>9.7328996E7</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712846225397_P97324963_Nota_Fiscal_1.jpeg ,1712846226167_P97324963_Outro_Documento_2.jpeg ,1712846226738_P97324963_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713983142717_P97328996_Nota_Fiscal_1.pdf ,1713983143532_P97328996_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>9.7325065E7</v>
+        <v>9.7311722E7</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856786176_P97325065_Nota_Fiscal_1.pdf ,1712856786613_P97325065_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713980732004_P97311722_Boleto_1.pdf ,1713980732861_P97311722_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>9.7324942E7</v>
+        <v>9.7310225E7</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856730262_P97324942_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713985971130_P97310225_Boleto_1.pdf ,1713985971481_P97310225_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>9.7324955E7</v>
+        <v>9.7310202E7</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855036883_P97324955_Nota_Fiscal_1.xlsx ,1712855037227_P97324955_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713985919492_P97310202_Boleto_1.pdf ,1713985921867_P97310202_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>9.732491E7</v>
+        <v>9.733412E7</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856746926_P97324910_Boleto_1.pdf ,1712856747514_P97324910_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713965756162_P97334120_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>9.7324886E7</v>
+        <v>9.7334119E7</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854103743_P97324886_Boleto_1.pdf ,1712854104567_P97324886_Nota_Fiscal_2.pdf ,1712854104890_P97324886_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713965747306_P97334119_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>9.7325433E7</v>
+        <v>9.7334111E7</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861449557_P97325433_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713972897125_P97334111_Nota_Fiscal_1.docx </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>9.7325253E7</v>
+        <v>9.7334117E7</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860873822_P97325253_Nota_Fiscal_1.pdf ,1712860874475_P97325253_Boleto_2.PDF </t>
+          <t xml:space="preserve">1713965741180_P97334117_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>9.7300549E7</v>
+        <v>9.7334112E7</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855227555_P97300549_Nota_Fiscal_1.pdf ,1712855227849_P97300549_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713965735932_P97334112_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>9.732527E7</v>
+        <v>9.7334099E7</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859409619_P97325270_Boleto_1.pdf ,1712859412367_P97325270_Orçamento_2.pdf ,1712859413201_P97325270_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713969385763_P97334099_Nota_Fiscal_1.pdf ,1713969386478_P97334099_Outro_Documento_2.pdf ,1713969386746_P97334099_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>9.7325233E7</v>
+        <v>9.7312549E7</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861485282_P97325233_Nota_Fiscal_1.pdf ,1712861485629_P97325233_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713985271486_P97312549_Boleto_1.pdf ,1713985271751_P97312549_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>9.7325204E7</v>
+        <v>9.731476E7</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847278922_P97325204_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713986265133_P97314760_Boleto_1.pdf ,1713986265588_P97314760_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>9.7325221E7</v>
+        <v>9.7314733E7</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847246767_P97325221_Nota_Fiscal_1.pdf ,1712847247092_P97325221_Outro_Documento_2.PNG ,1712847247733_P97325221_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713985559441_P97314733_Boleto_1.pdf ,1713985559840_P97314733_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>9.7325265E7</v>
+        <v>9.7314741E7</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857536339_P97325265_Boleto_1.jpg ,1712857536916_P97325265_Nota_Fiscal_2.jpg </t>
+          <t xml:space="preserve">1713985498070_P97314741_Boleto_1.pdf ,1713985498331_P97314741_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>9.7325282E7</v>
+        <v>9.7312551E7</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858260026_P97325282_Boleto_1.pdf ,1712858262559_P97325282_Nota_Fiscal_2.pdf ,1712858262846_P97325282_Nota_Fiscal_3.pdf ,1712858263097_P97325282_Nota_Fiscal_4.pdf ,1712858263349_P97325282_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713985440302_P97312551_Boleto_1.pdf ,1713985440885_P97312551_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>9.732528E7</v>
+        <v>9.7311777E7</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858227334_P97325280_Boleto_1.pdf ,1712858227797_P97325280_Nota_Fiscal_2.pdf ,1712858228309_P97325280_Nota_Fiscal_3.pdf ,1712858228627_P97325280_Nota_Fiscal_4.pdf ,1712858228901_P97325280_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713985371483_P97311777_Boleto_1.pdf ,1713985371802_P97311777_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>9.7325277E7</v>
+        <v>9.7312547E7</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858187960_P97325277_Boleto_1.pdf ,1712858188579_P97325277_Nota_Fiscal_2.pdf ,1712858188920_P97325277_Nota_Fiscal_3.pdf ,1712858189454_P97325277_Nota_Fiscal_4.pdf ,1712858189861_P97325277_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713985194467_P97312547_Boleto_1.pdf ,1713985194714_P97312547_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>9.7325275E7</v>
+        <v>9.7312544E7</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858150250_P97325275_Boleto_1.pdf ,1712858150981_P97325275_Nota_Fiscal_2.pdf ,1712858151315_P97325275_Nota_Fiscal_3.pdf ,1712858151771_P97325275_Nota_Fiscal_4.pdf ,1712858152127_P97325275_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713985137772_P97312544_Boleto_1.pdf ,1713985137995_P97312544_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>9.7306091E7</v>
+        <v>9.7310193E7</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851533688_P97306091_Nota_Fiscal_1.pdf ,1712851534875_P97306091_Boleto_2.pdf ,1712851535659_P97306091_Outro_Documento_3.pdf ,1712851535981_P97306091_Outro_Documento_4.pdf </t>
+          <t xml:space="preserve">1713983686941_P97310193_Nota_Fiscal_1.pdf ,1713983687694_P97310193_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>9.7306125E7</v>
+        <v>9.7312535E7</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851525362_P97306125_Nota_Fiscal_1.pdf ,1712851526309_P97306125_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713984772421_P97312535_Boleto_1.pdf ,1713984773005_P97312535_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>9.7324793E7</v>
+        <v>9.7313554E7</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855596743_P97324793_Nota_Fiscal_1.pdf ,1712855597247_P97324793_Boleto_2.jpeg </t>
+          <t xml:space="preserve">1713984950614_P97313554_Boleto_1.PDF ,1713984950999_P97313554_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>9.7324788E7</v>
+        <v>9.7312671E7</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859285632_P97324788_Boleto_1.jpg ,1712859286096_P97324788_Nota_Fiscal_2.jpg </t>
+          <t xml:space="preserve">1713980433525_P97312671_Boleto_1.pdf ,1713980433849_P97312671_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>9.7324809E7</v>
+        <v>9.7334248E7</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856742021_P97324809_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713965649310_P97334248_Boleto_1.pdf ,1713965650028_P97334248_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>9.7325021E7</v>
+        <v>9.7314791E7</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860597414_P97325021_Nota_Fiscal_1.pdf ,1712860598113_P97325021_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713986544073_P97314791_Nota_Fiscal_1.jpg ,1713986544523_P97314791_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>9.7325014E7</v>
+        <v>9.7311975E7</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860546831_P97325014_Nota_Fiscal_1.pdf ,1712860547383_P97325014_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713984533403_P97311975_Boleto_1.pdf ,1713984533773_P97311975_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>9.7325134E7</v>
+        <v>9.7312004E7</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860935105_P97325134_Outro_Documento_1.jpg ,1712860935652_P97325134_Outro_Documento_2.jpg ,1712860936538_P97325134_Outro_Documento_3.jpg ,1712860936997_P97325134_Outro_Documento_4.jpg ,1712860937638_P97325134_Outro_Documento_5.jpg ,1712860938307_P97325134_Outro_Documento_6.jpg ,1712860938762_P97325134_Outro_Documento_7.jpg ,1712860939170_P97325134_Outro_Documento_8.jpg </t>
+          <t xml:space="preserve">1713980363530_P97312004_Boleto_1.pdf ,1713980363844_P97312004_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>9.7325026E7</v>
+        <v>9.7311992E7</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859473448_P97325026_Boleto_1.pdf ,1712859473860_P97325026_Outro_Documento_2.docx </t>
+          <t xml:space="preserve">1713986132093_P97311992_Boleto_1.pdf ,1713986132415_P97311992_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>9.7305948E7</v>
+        <v>9.7334329E7</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854386888_P97305948_Nota_Fiscal_1.pdf ,1712854387537_P97305948_Boleto_2.pdf ,1712854388483_P97305948_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713987099486_P97334329_Outro_Documento_1.xlsx ,1713987099975_P97334329_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>9.732507E7</v>
+        <v>9.7334085E7</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852927130_P97325070_Nota_Fiscal_1.pdf ,1712852927449_P97325070_Boleto_2.pdf ,1712852927732_P97325070_opção_SIMPLES_3.pdf ,1712852928021_P97325070_Nota_Fiscal_4.pdf </t>
+          <t xml:space="preserve">1713973625465_P97334085_Nota_Fiscal_1.PNG ,1713973626030_P97334085_Outro_Documento_2.PNG ,1713973626734_P97334085_Nota_Fiscal_3.pdf ,1713973627054_P97334085_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>9.7307511E7</v>
+        <v>9.7334591E7</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712846526570_P97307511_Nota_Fiscal_1.jpg ,1712846527933_P97307511_Boleto_2.jpg ,1712846530268_P97307511_opção_SIMPLES_3.pdf ,1712846531041_P97307511_Nota_Fiscal_4.pdf </t>
+          <t xml:space="preserve">1713979952359_P97334591_Boleto_1.pdf ,1713979952596_P97334591_Orçamento_2.pdf ,1713979953245_P97334591_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>9.7325036E7</v>
+        <v>9.7334244E7</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852670312_P97325036_opção_SIMPLES_1.pdf ,1712852671179_P97325036_Nota_Fiscal_2.jpg ,1712852671849_P97325036_Boleto_3.jpg ,1712852672347_P97325036_Nota_Fiscal_4.pdf </t>
+          <t xml:space="preserve">1713979361759_P97334244_Nota_Fiscal_1.jpg ,1713979362985_P97334244_Outro_Documento_2.jpg ,1713979364001_P97334244_Outro_Documento_3.pdf ,1713979364347_P97334244_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>9.7324902E7</v>
+        <v>9.7334163E7</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854379615_P97324902_Boleto_1.pdf ,1712854379960_P97324902_Nota_Fiscal_2.pdf ,1712854380649_P97324902_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713979492781_P97334163_Orçamento_1.pdf ,1713979493190_P97334163_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>9.7324881E7</v>
+        <v>9.7334197E7</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853800516_P97324881_Nota_Fiscal_1.pdf ,1712853800955_P97324881_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713979868474_P97334197_Nota_Fiscal_1.pdf ,1713979869377_P97334197_Nota_Fiscal_2.pdf ,1713979870785_P97334197_Nota_Fiscal_3.pdf ,1713979871615_P97334197_Nota_Fiscal_4.pdf ,1713979871946_P97334197_Nota_Fiscal_5.pdf ,1713979872424_P97334197_Nota_Fiscal_6.xlsx ,1713979872626_P97334197_Nota_Fiscal_7.pdf </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>9.7324873E7</v>
+        <v>9.7334229E7</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712845830456_P97324873_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713978486448_P97334229_Nota_Fiscal_1.pdf ,1713978487342_P97334229_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>9.7324857E7</v>
+        <v>9.7334222E7</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856737393_P97324857_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713977702470_P97334222_opção_SIMPLES_1.pdf ,1713977703575_P97334222_Nota_Fiscal_2.jpg ,1713977704037_P97334222_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>9.7324835E7</v>
+        <v>9.733413E7</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856757830_P97324835_Nota_Fiscal_1.pdf ,1712856758648_P97324835_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713976790102_P97334130_Nota_Fiscal_1.pdf ,1713976793171_P97334130_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>9.7324999E7</v>
+        <v>9.7334362E7</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712846646234_P97324999_opção_SIMPLES_1.pdf ,1712846647004_P97324999_Nota_Fiscal_2.pdf ,1712846648236_P97324999_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713968525383_P97334362_Nota_Fiscal_1.pdf ,1713968526199_P97334362_Boleto_2.pdf ,1713968526971_P97334362_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>9.7324825E7</v>
+        <v>9.7334141E7</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853508752_P97324825_Boleto_1.pdf ,1712853509603_P97324825_Outro_Documento_2.pdf ,1712853510482_P97324825_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713966033010_P97334141_Nota_Fiscal_1.pdf ,1713966033361_P97334141_opção_SIMPLES_2.pdf ,1713966033757_P97334141_Outro_Documento_3.pdf ,1713966034696_P97334141_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>9.7298148E7</v>
+        <v>9.7305323E7</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852868327_P97298148_Nota_Fiscal_1.pdf ,1712852868771_P97298148_opção_SIMPLES_2.pdf ,1712852869044_P97298148_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713967912701_P97305323_Nota_Fiscal_1.jpg ,1713967913963_P97305323_Boleto_2.jpg ,1713967914759_P97305323_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>9.7325116E7</v>
+        <v>9.7334296E7</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852738058_P97325116_Outro_Documento_1.jpeg ,1712852738549_P97325116_Outro_Documento_2.pdf ,1712852738814_P97325116_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713967702922_P97334296_Nota_Fiscal_1.pdf ,1713967703881_P97334296_Outro_Documento_2.png </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>9.732508E7</v>
+        <v>9.7334108E7</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853773455_P97325080_Nota_Fiscal_1.pdf ,1712853774225_P97325080_Boleto_2.pdf ,1712853775345_P97325080_Outro_Documento_3.pdf ,1712853776700_P97325080_opção_SIMPLES_4.pdf ,1712853777243_P97325080_Outro_Documento_5.pdf ,1712853777539_P97325080_Nota_Fiscal_6.pdf </t>
+          <t xml:space="preserve">1713966114570_P97334108_Nota_Fiscal_1.pdf ,1713966115551_P97334108_opção_SIMPLES_2.pdf ,1713966116860_P97334108_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>9.7324993E7</v>
+        <v>9.7334149E7</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852779380_P97324993_opção_SIMPLES_1.pdf ,1712852779690_P97324993_Nota_Fiscal_2.pdf ,1712852780091_P97324993_Boleto_3.pdf ,1712852780405_P97324993_Outro_Documento_4.pdf ,1712852780635_P97324993_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713965878632_P97334149_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>9.7324986E7</v>
+        <v>9.7334232E7</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853077625_P97324986_opção_SIMPLES_1.pdf ,1712853078882_P97324986_Nota_Fiscal_2.pdf ,1712853079769_P97324986_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713979392685_P97334232_Nota_Fiscal_1.pdf ,1713979392999_P97334232_Boleto_2.pdf ,1713979393364_P97334232_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>9.7324972E7</v>
+        <v>9.7334173E7</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854296227_P97324972_Nota_Fiscal_1.pdf ,1712854296498_P97324972_opção_SIMPLES_2.pdf ,1712854296758_P97324972_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713965602258_P97334173_Boleto_1.pdf ,1713965602869_P97334173_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>9.7324957E7</v>
+        <v>9.7334161E7</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853596066_P97324957_Nota_Fiscal_1.pdf ,1712853596602_P97324957_Outro_Documento_2.pdf ,1712853596908_P97324957_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713977123835_P97334161_Nota_Fiscal_1.pdf ,1713977124223_P97334161_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>9.7324938E7</v>
+        <v>9.7334136E7</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853483469_P97324938_Outro_Documento_1.pdf ,1712853484264_P97324938_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713976922458_P97334136_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>9.7324925E7</v>
+        <v>9.7334174E7</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856762683_P97324925_Nota_Fiscal_1.pdf ,1712856763010_P97324925_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713980659033_P97334174_Nota_Fiscal_1.pdf ,1713980659280_P97334174_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>9.7325001E7</v>
+        <v>9.7322963E7</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855272886_P97325001_Nota_Fiscal_1.pdf ,1712855279917_P97325001_Boleto_2.pdf ,1712855280919_P97325001_Boleto_3.pdf ,1712855281272_P97325001_opção_SIMPLES_4.pdf </t>
+          <t xml:space="preserve">1713965551700_P97322963_Nota_Fiscal_1.jpg ,1713965553616_P97322963_Boleto_2.jpg ,1713965555444_P97322963_Boleto_3.jpg ,1713965558545_P97322963_Boleto_4.jpg ,1713965559560_P97322963_opção_SIMPLES_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>9.7324977E7</v>
+        <v>9.7334124E7</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852049076_P97324977_Nota_Fiscal_1.pdf ,1712852050843_P97324977_Boleto_2.pdf ,1712852052572_P97324977_Boleto_3.pdf </t>
+          <t xml:space="preserve">1713973584582_P97334124_Boleto_1.pdf ,1713973585600_P97334124_Orçamento_2.pdf ,1713973586643_P97334124_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>9.732495E7</v>
+        <v>9.7318129E7</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852755731_P97324950_Nota_Fiscal_1.pdf ,1712852756174_P97324950_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713984369040_P97318129_Nota_Fiscal_1.pdf ,1713984369477_P97318129_Boleto_2.PDF </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>9.7324933E7</v>
+        <v>9.7310075E7</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854240171_P97324933_Nota_Fiscal_1.pdf ,1712854240760_P97324933_Boleto_2.pdf ,1712854241207_P97324933_Boleto_3.pdf ,1712854241756_P97324933_Boleto_4.pdf ,1712854242315_P97324933_Boleto_5.pdf </t>
+          <t xml:space="preserve">1713964763398_P97310075_Boleto_1.pdf ,1713964764057_P97310075_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>9.7324995E7</v>
+        <v>9.7319737E7</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853252598_P97324995_opção_SIMPLES_1.pdf ,1712853252889_P97324995_Nota_Fiscal_2.jpg ,1712853253191_P97324995_Nota_Fiscal_3.jpg ,1712853253510_P97324995_Boleto_4.jpg </t>
+          <t xml:space="preserve">1713984551505_P97319737_Nota_Fiscal_1.pdf ,1713984551993_P97319737_Boleto_2.pdf ,1713984552318_P97319737_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>9.7324992E7</v>
+        <v>9.7333904E7</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853037826_P97324992_opção_SIMPLES_1.pdf ,1712853038341_P97324992_Nota_Fiscal_2.jpg ,1712853038775_P97324992_Nota_Fiscal_3.jpg ,1712853040146_P97324992_Boleto_4.jpg </t>
+          <t xml:space="preserve">1713984745641_P97333904_Nota_Fiscal_1.pdf ,1713984746541_P97333904_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>9.7324882E7</v>
+        <v>9.7319332E7</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857166157_P97324882_Nota_Fiscal_1.pdf ,1712857166798_P97324882_Boleto_2.pdf ,1712857167569_P97324882_Orçamento_3.pdf </t>
+          <t xml:space="preserve">1713984629213_P97319332_Nota_Fiscal_1.pdf ,1713984629654_P97319332_Boleto_2.pdf ,1713984629930_P97319332_opção_SIMPLES_3.pdf ,1713984630267_P97319332_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>9.7324686E7</v>
+        <v>9.7319325E7</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858180166_P97324686_Nota_Fiscal_1.pdf ,1712858180634_P97324686_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713984593203_P97319325_Nota_Fiscal_1.pdf ,1713984594082_P97319325_Boleto_2.pdf ,1713984595612_P97319325_opção_SIMPLES_3.pdf ,1713984596203_P97319325_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>9.7324924E7</v>
+        <v>9.731934E7</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853654659_P97324924_Nota_Fiscal_1.jpg ,1712853656701_P97324924_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713984708651_P97319340_Nota_Fiscal_1.jpg ,1713984709281_P97319340_Boleto_2.jpg ,1713984710027_P97319340_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>9.7324916E7</v>
+        <v>9.7319386E7</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854191397_P97324916_Nota_Fiscal_1.jpg ,1712854191784_P97324916_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713984999861_P97319386_Nota_Fiscal_1.PDF ,1713985000157_P97319386_Boleto_2.PDF ,1713985000506_P97319386_Outro_Documento_3.PDF ,1713985001292_P97319386_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>9.7324911E7</v>
+        <v>9.7319379E7</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712845823736_P97324911_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713984931905_P97319379_Nota_Fiscal_1.PDF ,1713984932608_P97319379_Boleto_2.PDF ,1713984933292_P97319379_Outro_Documento_3.PDF ,1713984933574_P97319379_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>9.730528E7</v>
+        <v>9.7311766E7</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853973188_P97305280_Nota_Fiscal_1.jpg ,1712853974603_P97305280_Boleto_2.jpg ,1712853975114_P97305280_opção_SIMPLES_3.pdf ,1712853975809_P97305280_Outro_Documento_4.pdf </t>
+          <t xml:space="preserve">1713985694742_P97311766_Boleto_1.PDF ,1713985695033_P97311766_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>9.7325094E7</v>
+        <v>9.7311692E7</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856780963_P97325094_Nota_Fiscal_1.pdf ,1712856781341_P97325094_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713984132310_P97311692_Boleto_1.pdf ,1713984133096_P97311692_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>9.730929E7</v>
+        <v>9.7311718E7</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847271623_P97309290_Nota_Fiscal_1.pdf ,1712847271907_P97309290_Nota_Fiscal_2.pdf ,1712847272605_P97309290_Outro_Documento_3.pdf ,1712847272926_P97309290_opção_SIMPLES_4.pdf </t>
+          <t xml:space="preserve">1713983875053_P97311718_Nota_Fiscal_1.pdf ,1713983876074_P97311718_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>9.732493E7</v>
+        <v>9.7311784E7</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861453752_P97324930_Nota_Fiscal_1.pdf ,1712861454199_P97324930_Boleto_2.PDF ,1712861454682_P97324930_opção_SIMPLES_3.pdf ,1712861455038_P97324930_Nota_Fiscal_4.pdf </t>
+          <t xml:space="preserve">1713985000145_P97311784_Outro_Documento_1.jpg ,1713985000466_P97311784_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>9.7306952E7</v>
+        <v>9.7311697E7</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859624024_P97306952_Nota_Fiscal_1.pdf ,1712859624651_P97306952_Nota_Fiscal_2.pdf ,1712859625103_P97306952_Boleto_3.pdf </t>
+          <t xml:space="preserve">1713981262743_P97311697_Outro_Documento_1.PDF ,1713981263179_P97311697_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>9.7306958E7</v>
+        <v>9.7311763E7</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859732098_P97306958_Nota_Fiscal_1.pdf ,1712859732828_P97306958_Nota_Fiscal_2.pdf ,1712859733359_P97306958_Boleto_3.pdf ,1712859733868_P97306958_Outro_Documento_4.pdf </t>
+          <t xml:space="preserve">1713983497066_P97311763_Boleto_1.jpg ,1713983498058_P97311763_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>9.7324907E7</v>
+        <v>9.7334152E7</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857431280_P97324907_Boleto_1.pdf ,1712857431699_P97324907_Nota_Fiscal_2.pdf ,1712857432933_P97324907_Orçamento_3.pdf ,1712857433485_P97324907_opção_SIMPLES_4.pdf ,1712857433934_P97324907_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713965174024_P97334152_Nota_Fiscal_1.pdf ,1713965174930_P97334152_Outro_Documento_2.pdf ,1713965175381_P97334152_opção_SIMPLES_3.pdf ,1713965175976_P97334152_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>9.7305484E7</v>
+        <v>9.7319416E7</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847603520_P97305484_Nota_Fiscal_1.pdf ,1712847603896_P97305484_Boleto_2.pdf ,1712847605008_P97305484_Outro_Documento_3.pdf ,1712847605701_P97305484_Outro_Documento_4.pdf ,1712847606145_P97305484_opção_SIMPLES_5.pdf ,1712847606770_P97305484_Nota_Fiscal_6.pdf </t>
+          <t xml:space="preserve">1713985099836_P97319416_Nota_Fiscal_1.pdf ,1713985100142_P97319416_Boleto_2.pdf ,1713985100433_P97319416_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>9.7324901E7</v>
+        <v>9.7319431E7</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712846759775_P97324901_Outro_Documento_1.jpg ,1712846760419_P97324901_opção_SIMPLES_2.pdf ,1712846760952_P97324901_Nota_Fiscal_3.pdf ,1712846761330_P97324901_Outro_Documento_4.pdf ,1712846761568_P97324901_Outro_Documento_5.pdf </t>
+          <t xml:space="preserve">1713986565276_P97319431_Nota_Fiscal_1.jpg ,1713986567111_P97319431_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>9.7324861E7</v>
+        <v>9.7333964E7</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712846838400_P97324861_Nota_Fiscal_1.pdf ,1712846839101_P97324861_Boleto_2.pdf ,1712846839693_P97324861_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713985397949_P97333964_Nota_Fiscal_1.jpg ,1713985398816_P97333964_Boleto_2.jpg ,1713985399440_P97333964_Boleto_3.jpg ,1713985400082_P97333964_Boleto_4.jpg </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>9.7324839E7</v>
+        <v>9.7319454E7</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847362101_P97324839_Nota_Fiscal_1.pdf ,1712847362932_P97324839_Outro_Documento_2.pdf ,1712847363751_P97324839_Outro_Documento_3.jpeg ,1712847364309_P97324839_opção_SIMPLES_4.pdf ,1712847365081_P97324839_Outro_Documento_5.pdf </t>
+          <t xml:space="preserve">1713985430481_P97319454_Nota_Fiscal_1.PDF ,1713985430812_P97319454_Boleto_2.PDF ,1713985431705_P97319454_Outro_Documento_3.PDF ,1713985432450_P97319454_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>9.7324826E7</v>
+        <v>9.7319476E7</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851959662_P97324826_Nota_Fiscal_1.pdf ,1712851960518_P97324826_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713986010821_P97319476_Outro_Documento_1.pdf ,1713986012060_P97319476_Outro_Documento_2.pdf ,1713986012587_P97319476_opção_SIMPLES_3.pdf ,1713986012904_P97319476_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>9.7305896E7</v>
+        <v>9.7319532E7</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856752345_P97305896_Boleto_1.jpg ,1712856753062_P97305896_Nota_Fiscal_2.jpg ,1712856753488_P97305896_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713988729801_P97319532_opção_SIMPLES_1.pdf ,1713988730972_P97319532_Boleto_2.jpg ,1713988733167_P97319532_Boleto_3.jpg </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>9.7324784E7</v>
+        <v>9.731956E7</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855170655_P97324784_Nota_Fiscal_1.pdf ,1712855171325_P97324784_Boleto_2.pdf ,1712855172749_P97324784_opção_SIMPLES_3.pdf ,1712855173098_P97324784_Nota_Fiscal_4.pdf </t>
+          <t xml:space="preserve">1713988880181_P97319560_Nota_Fiscal_1.pdf ,1713988880715_P97319560_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>9.7324803E7</v>
+        <v>9.7334009E7</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856774325_P97324803_Nota_Fiscal_1.pdf ,1712856774737_P97324803_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713989101477_P97334009_Nota_Fiscal_1.jpg ,1713989101981_P97334009_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>9.732486E7</v>
+        <v>9.7334015E7</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858247784_P97324860_Nota_Fiscal_1.jpg ,1712858249606_P97324860_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713989057815_P97334015_Nota_Fiscal_1.PNG ,1713989058248_P97334015_Boleto_2.PNG ,1713989059744_P97334015_Boleto_3.PNG ,1713989060525_P97334015_Boleto_4.PNG ,1713989061066_P97334015_Boleto_5.PNG </t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>9.7324836E7</v>
+        <v>9.7333438E7</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847090254_P97324836_Boleto_1.jpg ,1712847092637_P97324836_Boleto_2.jpg ,1712847094566_P97324836_Outro_Documento_3.jpg ,1712847095816_P97324836_opção_SIMPLES_4.pdf </t>
+          <t xml:space="preserve">1713981344127_P97333438_Nota_Fiscal_1.pdf ,1713981345249_P97333438_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>9.7324808E7</v>
+        <v>9.7317514E7</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863213915_P97324808_Boleto_1.pdf ,1712863214863_P97324808_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713979604339_P97317514_Nota_Fiscal_1.pdf ,1713979604676_P97317514_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>9.7324815E7</v>
+        <v>9.7333432E7</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856188744_P97324815_Nota_Fiscal_1.jpg ,1712856189692_P97324815_Nota_Fiscal_2.jpg ,1712856190551_P97324815_Boleto_3.jpg </t>
+          <t xml:space="preserve">1713979303846_P97333432_Boleto_1.pdf ,1713979304600_P97333432_Nota_Fiscal_2.pdf ,1713979304873_P97333432_Orçamento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>9.7324797E7</v>
+        <v>9.7333419E7</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847251025_P97324797_Nota_Fiscal_1.pdf ,1712847252137_P97324797_Boleto_2.pdf ,1712847252456_P97324797_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713979027717_P97333419_Nota_Fiscal_1.pdf ,1713979028193_P97333419_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>9.7324791E7</v>
+        <v>9.7319098E7</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857741523_P97324791_opção_SIMPLES_1.pdf ,1712857742192_P97324791_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713978986618_P97319098_Boleto_1.jpg ,1713978987239_P97319098_Nota_Fiscal_2.jpg ,1713978987683_P97319098_Outro_Documento_3.jpg ,1713978988012_P97319098_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>9.7287365E7</v>
+        <v>9.7319543E7</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860997217_P97287365_Nota_Fiscal_1.pdf ,1712860998205_P97287365_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713988776368_P97319543_Nota_Fiscal_1.pdf ,1713988776926_P97319543_Boleto_2.pdf ,1713988777332_P97319543_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>9.732478E7</v>
+        <v>9.7319378E7</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858858011_P97324780_Boleto_1.pdf ,1712858858688_P97324780_Orçamento_2.pdf </t>
+          <t xml:space="preserve">1713989979724_P97319378_opção_SIMPLES_1.pdf ,1713989980138_P97319378_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>9.7324766E7</v>
+        <v>9.7319433E7</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856255475_P97324766_Boleto_1.pdf ,1712856256106_P97324766_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713985195708_P97319433_Nota_Fiscal_1.jpg ,1713985196087_P97319433_Boleto_2.jpg ,1713985196441_P97319433_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>9.7324778E7</v>
+        <v>9.7317032E7</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712847241655_P97324778_Boleto_1.jpg ,1712847242412_P97324778_Nota_Fiscal_2.jpg </t>
+          <t xml:space="preserve">1713985652021_P97317032_Nota_Fiscal_1.pdf ,1713985652589_P97317032_Outro_Documento_2.pdf ,1713985652889_P97317032_Nota_Fiscal_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>9.7306375E7</v>
+        <v>9.73334E7</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861890295_P97306375_Nota_Fiscal_1.pdf ,1712861891120_P97306375_Boleto_2.pdf ,1712861891475_P97306375_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713978666440_P97333400_Nota_Fiscal_1.pdf ,1713978666882_P97333400_Boleto_2.pdf ,1713978668646_P97333400_Orçamento_3.pdf ,1713978669660_P97333400_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>9.7324745E7</v>
+        <v>9.7319104E7</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861374899_P97324745_Nota_Fiscal_1.pdf ,1712861375289_P97324745_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713978602211_P97319104_Nota_Fiscal_1.pdf ,1713978602972_P97319104_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>9.7306607E7</v>
+        <v>9.7333364E7</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861733703_P97306607_Nota_Fiscal_1.pdf ,1712861734030_P97306607_Boleto_2.pdf ,1712861734457_P97306607_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713976679966_P97333364_Outro_Documento_1.pdf ,1713976680425_P97333364_Outro_Documento_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>9.7324739E7</v>
+        <v>9.7333365E7</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859880844_P97324739_Nota_Fiscal_1.jpg ,1712859881412_P97324739_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713976633475_P97333365_Outro_Documento_1.pdf ,1713976634324_P97333365_Outro_Documento_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>9.7324724E7</v>
+        <v>9.7333361E7</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861313289_P97324724_Nota_Fiscal_1.pdf ,1712861313602_P97324724_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713977120585_P97333361_Nota_Fiscal_1.pdf ,1713977120921_P97333361_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>9.7324715E7</v>
+        <v>9.7333363E7</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861254068_P97324715_Nota_Fiscal_1.pdf ,1712861254484_P97324715_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713977092781_P97333363_Nota_Fiscal_1.pdf ,1713977093057_P97333363_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>9.7324723E7</v>
+        <v>9.7333362E7</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855527374_P97324723_Nota_Fiscal_1.pdf ,1712855527851_P97324723_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713977050926_P97333362_Nota_Fiscal_1.pdf ,1713977051267_P97333362_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>9.7307634E7</v>
+        <v>9.733403E7</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857245949_P97307634_Boleto_1.pdf ,1712857246473_P97307634_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713990316995_P97334030_Nota_Fiscal_1.pdf ,1713990317750_P97334030_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>9.7324794E7</v>
+        <v>9.7314963E7</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854926709_P97324794_Boleto_1.pdf ,1712854928765_P97324794_Outro_Documento_2.pdf ,1712854929815_P97324794_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713988920690_P97314963_Nota_Fiscal_1.pdf ,1713988920956_P97314963_Boleto_2.pdf ,1713988921481_P97314963_Outro_Documento_3.pdf ,1713988921780_P97314963_Outro_Documento_4.pdf ,1713988925849_P97314963_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>9.7305933E7</v>
+        <v>9.7314958E7</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857525334_P97305933_Nota_Fiscal_1.pdf ,1712857525668_P97305933_Boleto_2.pdf ,1712857526080_P97305933_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713988814695_P97314958_Nota_Fiscal_1.pdf ,1713988815814_P97314958_Boleto_2.pdf ,1713988816520_P97314958_Outro_Documento_3.pdf ,1713988817408_P97314958_Outro_Documento_4.pdf ,1713988817770_P97314958_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>9.7324704E7</v>
+        <v>9.7313186E7</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853533532_P97324704_opção_SIMPLES_1.pdf ,1712853535937_P97324704_Nota_Fiscal_2.jpeg </t>
+          <t xml:space="preserve">1713988845592_P97313186_Nota_Fiscal_1.pdf ,1713988846237_P97313186_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>9.7324692E7</v>
+        <v>9.7314949E7</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860750776_P97324692_Nota_Fiscal_1.pdf ,1712860751395_P97324692_Boleto_2.pdf ,1712860752203_P97324692_Boleto_3.pdf </t>
+          <t xml:space="preserve">1713986639232_P97314949_Outro_Documento_1.pdf ,1713986642383_P97314949_Outro_Documento_2.pdf ,1713986643108_P97314949_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>9.7324776E7</v>
+        <v>9.7317378E7</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852634231_P97324776_Nota_Fiscal_1.jpg ,1712852634880_P97324776_Boleto_2.pdf ,1712852635340_P97324776_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713985065412_P97317378_Nota_Fiscal_1.pdf ,1713985065647_P97317378_Boleto_2.pdf ,1713985065899_P97317378_Nota_Fiscal_3.pdf ,1713985066258_P97317378_Outro_Documento_4.pdf ,1713985066612_P97317378_Outro_Documento_5.pdf ,1713985067000_P97317378_Outro_Documento_6.pdf </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>9.7324771E7</v>
+        <v>9.7325226E7</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854094020_P97324771_Nota_Fiscal_1.jpg ,1712854094919_P97324771_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713984929714_P97325226_Nota_Fiscal_1.pdf ,1713984929990_P97325226_Boleto_2.pdf ,1713984930376_P97325226_Outro_Documento_3.pdf ,1713984930768_P97325226_Outro_Documento_4.pdf ,1713984931155_P97325226_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>9.7324763E7</v>
+        <v>9.7315084E7</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861430379_P97324763_Nota_Fiscal_1.pdf ,1712861430673_P97324763_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713985232633_P97315084_opção_SIMPLES_1.pdf ,1713985233200_P97315084_Nota_Fiscal_2.pdf ,1713985234781_P97315084_Boleto_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>9.7324744E7</v>
+        <v>9.7314954E7</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860127983_P97324744_Nota_Fiscal_1.jpg ,1712860129345_P97324744_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713985302944_P97314954_Nota_Fiscal_1.pdf ,1713985303439_P97314954_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>9.7303307E7</v>
+        <v>9.7316264E7</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856800009_P97303307_Nota_Fiscal_1.pdf ,1712856800618_P97303307_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713981611612_P97316264_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>9.7324687E7</v>
+        <v>9.7316245E7</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856717850_P97324687_Nota_Fiscal_1.jpg ,1712856718539_P97324687_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713980353165_P97316245_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>9.7324683E7</v>
+        <v>9.7311319E7</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856710876_P97324683_Nota_Fiscal_1.pdf ,1712856711538_P97324683_Boleto_2.pdf ,1712856712930_P97324683_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713977003846_P97311319_Nota_Fiscal_1.pdf ,1713977004156_P97311319_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>9.7324678E7</v>
+        <v>9.7311309E7</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854058628_P97324678_Nota_Fiscal_1.pdf ,1712854059028_P97324678_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713977312874_P97311309_Nota_Fiscal_1.pdf ,1713977313277_P97311309_Boleto_2.pdf ,1713977314322_P97311309_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>9.7324672E7</v>
+        <v>9.7311315E7</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856704846_P97324672_Nota_Fiscal_1.pdf ,1712856705192_P97324672_Boleto_2.pdf ,1712856705589_P97324672_Boleto_3.pdf </t>
+          <t xml:space="preserve">1713977280392_P97311315_Nota_Fiscal_1.pdf ,1713977280852_P97311315_Boleto_2.pdf ,1713977281182_P97311315_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>9.732467E7</v>
+        <v>9.7319487E7</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853947474_P97324670_Nota_Fiscal_1.pdf ,1712853947796_P97324670_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713987081198_P97319487_Nota_Fiscal_1.PDF ,1713987082578_P97319487_Boleto_2.PDF ,1713987082856_P97319487_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>9.7324667E7</v>
+        <v>9.7333427E7</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853881884_P97324667_Nota_Fiscal_1.pdf ,1712853882567_P97324667_Boleto_2.pdf ,1712853883237_P97324667_Boleto_3.pdf </t>
+          <t xml:space="preserve">1713982243605_P97333427_Nota_Fiscal_1.pdf ,1713982244103_P97333427_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>9.7304966E7</v>
+        <v>9.7333418E7</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852637716_P97304966_Boleto_1.pdf ,1712852638835_P97304966_Nota_Fiscal_2.pdf ,1712852639316_P97304966_opção_SIMPLES_3.pdf ,1712852639871_P97304966_Nota_Fiscal_4.pdf </t>
+          <t xml:space="preserve">1713979517382_P97333418_Boleto_1.pdf ,1713979518159_P97333418_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>9.7324893E7</v>
+        <v>9.7333411E7</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861480005_P97324893_Nota_Fiscal_1.pdf ,1712861481269_P97324893_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713982193604_P97333411_Nota_Fiscal_1.pdf ,1713982194028_P97333411_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>9.7306655E7</v>
+        <v>9.7333391E7</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851649714_P97306655_Nota_Fiscal_1.pdf ,1712851650145_P97306655_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713977671890_P97333391_Boleto_1.pdf ,1713977672332_P97333391_Nota_Fiscal_2.pdf ,1713977672776_P97333391_Nota_Fiscal_3.pdf ,1713977673252_P97333391_Boleto_4.pdf ,1713977675016_P97333391_Boleto_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>9.7324499E7</v>
+        <v>9.7311987E7</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854052984_P97324499_Boleto_1.jpg ,1712854053630_P97324499_Outro_Documento_2.jpg </t>
+          <t xml:space="preserve">1713980048802_P97311987_Boleto_1.pdf ,1713980049355_P97311987_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>9.7324621E7</v>
+        <v>9.7313524E7</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712852771903_P97324621_Nota_Fiscal_1.jpg ,1712852773388_P97324621_Nota_Fiscal_2.jpg ,1712852774875_P97324621_Nota_Fiscal_3.jpg ,1712852776395_P97324621_Boleto_4.jpg </t>
+          <t xml:space="preserve">1713979749118_P97313524_Boleto_1.pdf ,1713979749419_P97313524_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>9.7324503E7</v>
+        <v>9.733421E7</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853855992_P97324503_Nota_Fiscal_1.pdf ,1712853856570_P97324503_Nota_Fiscal_2.pdf ,1712853857565_P97324503_Nota_Fiscal_3.pdf ,1712853858002_P97324503_Outro_Documento_4.pdf </t>
+          <t xml:space="preserve">1713984084930_P97334210_Nota_Fiscal_1.pdf ,1713984085920_P97334210_Boleto_2.pdf ,1713984087162_P97334210_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>9.7307503E7</v>
+        <v>9.7312353E7</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861463354_P97307503_Nota_Fiscal_1.pdf ,1712861463685_P97307503_Boleto_2.pdf ,1712861465027_P97307503_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713984318410_P97312353_Boleto_1.pdf ,1713984319027_P97312353_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>9.7303065E7</v>
+        <v>9.731199E7</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861438697_P97303065_Nota_Fiscal_1.pdf ,1712861439956_P97303065_Boleto_2.pdf ,1712861440550_P97303065_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713979402890_P97311990_Boleto_1.pdf ,1713979403156_P97311990_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>9.7324421E7</v>
+        <v>9.7311666E7</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851640748_P97324421_Nota_Fiscal_1.pdf ,1712851642427_P97324421_Boleto_2.pdf ,1712851643269_P97324421_Nota_Fiscal_3.pdf ,1712851643829_P97324421_opção_SIMPLES_4.pdf </t>
+          <t xml:space="preserve">1713985631579_P97311666_Nota_Fiscal_1.PDF ,1713985632197_P97311666_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>9.7304875E7</v>
+        <v>9.7334195E7</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854048081_P97304875_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713986892770_P97334195_Nota_Fiscal_1.pdf ,1713986893099_P97334195_Boleto_2.pdf ,1713986893453_P97334195_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>9.7323228E7</v>
+        <v>9.7311789E7</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861127411_P97323228_Nota_Fiscal_1.pdf ,1712861127867_P97323228_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713986329677_P97311789_Boleto_1.jpg ,1713986330179_P97311789_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>9.731011E7</v>
+        <v>9.7312298E7</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851631553_P97310110_Nota_Fiscal_1.pdf ,1712851633034_P97310110_Boleto_2.pdf ,1712851633685_P97310110_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713979130367_P97312298_Boleto_1.jpg ,1713979130957_P97312298_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>9.7310961E7</v>
+        <v>9.7313399E7</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712851479539_P97310961_Boleto_1.JPG ,1712851480463_P97310961_Nota_Fiscal_2.JPG </t>
+          <t xml:space="preserve">1713983755550_P97313399_Nota_Fiscal_1.jpg ,1713983756500_P97313399_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>9.7307087E7</v>
+        <v>9.7314688E7</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861144449_P97307087_Nota_Fiscal_1.jpg ,1712861145305_P97307087_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713979387592_P97314688_Nota_Fiscal_1.pdf ,1713979388560_P97314688_Boleto_2.pdf ,1713979388993_P97314688_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>9.7305556E7</v>
+        <v>9.7311673E7</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855475202_P97305556_Boleto_1.PDF ,1712855477565_P97305556_Nota_Fiscal_2.jpg ,1712855478108_P97305556_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713979731512_P97311673_Nota_Fiscal_1.PDF ,1713979733036_P97311673_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>9.7306688E7</v>
+        <v>9.7334164E7</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858975833_P97306688_Boleto_1.pdf ,1712858976345_P97306688_Nota_Fiscal_2.pdf ,1712858976707_P97306688_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713980613792_P97334164_Nota_Fiscal_1.pdf ,1713980614066_P97334164_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>9.730669E7</v>
+        <v>9.7314865E7</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858998329_P97306690_Boleto_1.pdf ,1712858998756_P97306690_Nota_Fiscal_2.pdf ,1712858999028_P97306690_Nota_Fiscal_3.pdf </t>
+          <t xml:space="preserve">1713979207598_P97314865_Nota_Fiscal_1.pdf ,1713979208053_P97314865_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>9.7300505E7</v>
+        <v>9.733415E7</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712863549420_P97300505_Nota_Fiscal_1.pdf ,1712863550053_P97300505_opção_SIMPLES_2.pdf </t>
+          <t xml:space="preserve">1713969345105_P97334150_Nota_Fiscal_1.pdf ,1713969346966_P97334150_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>9.7322994E7</v>
+        <v>9.7334146E7</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857321078_P97322994_Nota_Fiscal_1.jpg ,1712857321435_P97322994_Boleto_2.jpg ,1712857321738_P97322994_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713965491104_P97334146_Nota_Fiscal_1.pdf ,1713965491707_P97334146_Boleto_2.doc </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>9.7321848E7</v>
+        <v>9.7334142E7</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712854178315_P97321848_Nota_Fiscal_1.pdf ,1712854178936_P97321848_Boleto_2.pdf ,1712854179511_P97321848_opção_SIMPLES_3.pdf ,1712854179965_P97321848_Outro_Documento_4.pdf ,1712854180337_P97321848_Nota_Fiscal_5.pdf </t>
+          <t xml:space="preserve">1713965396041_P97334142_Nota_Fiscal_1.pdf ,1713965396537_P97334142_Boleto_2.doc ,1713965397430_P97334142_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>9.7322352E7</v>
+        <v>9.7334132E7</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861132747_P97322352_Nota_Fiscal_1.pdf ,1712861133494_P97322352_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713965976738_P97334132_Nota_Fiscal_1.pdf ,1713965977223_P97334132_Outro_Documento_2.docx ,1713965977758_P97334132_opção_SIMPLES_3.pdf ,1713965978301_P97334132_Outro_Documento_4.pdf ,1713965978823_P97334132_Nota_Fiscal_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>9.7305092E7</v>
+        <v>9.7334123E7</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861445478_P97305092_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713965254571_P97334123_Nota_Fiscal_1.jpg ,1713965254924_P97334123_Outro_Documento_2.jpg ,1713965255276_P97334123_opção_SIMPLES_3.pdf ,1713965255765_P97334123_Outro_Documento_4.pdf ,1713965256310_P97334123_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>9.731154E7</v>
+        <v>9.7334118E7</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858341402_P97311540_Nota_Fiscal_1.pdf ,1712858341714_P97311540_Boleto_2.pdf ,1712858342029_P97311540_Outro_Documento_3.pdf ,1712858342940_P97311540_Outro_Documento_4.pdf ,1712858343755_P97311540_Outro_Documento_5.pdf ,1712858344637_P97311540_Outro_Documento_6.pdf ,1712858345038_P97311540_Outro_Documento_7.pdf ,1712858345358_P97311540_Outro_Documento_8.pdf ,1712858346740_P97311540_Outro_Documento_9.pdf ,1712858347409_P97311540_opção_SIMPLES_10.pdf ,1712858347703_P97311540_Nota_Fiscal_11.pdf </t>
+          <t xml:space="preserve">1713965115102_P97334118_Nota_Fiscal_1.pdf ,1713965115662_P97334118_opção_SIMPLES_2.pdf ,1713965116116_P97334118_Outro_Documento_3.pdf ,1713965117113_P97334118_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>9.731155E7</v>
+        <v>9.7334115E7</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858408328_P97311550_Nota_Fiscal_1.pdf ,1712858408630_P97311550_Boleto_2.pdf ,1712858408900_P97311550_Outro_Documento_3.pdf ,1712858409276_P97311550_Outro_Documento_4.pdf ,1712858409940_P97311550_Outro_Documento_5.pdf ,1712858410310_P97311550_Outro_Documento_6.pdf ,1712858410590_P97311550_Outro_Documento_7.pdf ,1712858410843_P97311550_Outro_Documento_8.pdf ,1712858411147_P97311550_Outro_Documento_9.pdf ,1712858411453_P97311550_opção_SIMPLES_10.pdf ,1712858411693_P97311550_Nota_Fiscal_11.pdf </t>
+          <t xml:space="preserve">1713965031454_P97334115_Nota_Fiscal_1.pdf ,1713965032383_P97334115_opção_SIMPLES_2.pdf ,1713965033827_P97334115_Outro_Documento_3.pdf ,1713965035469_P97334115_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>9.7321819E7</v>
+        <v>9.7334113E7</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861156211_P97321819_Nota_Fiscal_1.jpg ,1712861156896_P97321819_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713965078974_P97334113_Nota_Fiscal_1.pdf ,1713965079246_P97334113_opção_SIMPLES_2.pdf ,1713965079656_P97334113_Outro_Documento_3.pdf ,1713965080071_P97334113_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>9.7322015E7</v>
+        <v>9.7334109E7</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860061790_P97322015_Nota_Fiscal_1.jpg ,1712860063011_P97322015_Outro_Documento_2.jpg </t>
+          <t xml:space="preserve">1713966187718_P97334109_Nota_Fiscal_1.jpg ,1713966188065_P97334109_opção_SIMPLES_2.pdf ,1713966189944_P97334109_Boleto_3.pdf ,1713966191617_P97334109_Outro_Documento_4.pdf ,1713966192249_P97334109_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>9.7306379E7</v>
+        <v>9.7334073E7</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860811367_P97306379_Boleto_1.pdf ,1712860812349_P97306379_Nota_Fiscal_2.pdf ,1712860812856_P97306379_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713973618071_P97334073_Nota_Fiscal_1.pdf ,1713973618758_P97334073_Boleto_2.pdf ,1713973619143_P97334073_opção_SIMPLES_3.pdf ,1713973619546_P97334073_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>9.7321194E7</v>
+        <v>9.7312386E7</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857084363_P97321194_Nota_Fiscal_1.pdf ,1712857084829_P97321194_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713979717000_P97312386_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>9.7306698E7</v>
+        <v>9.7316237E7</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857045664_P97306698_Nota_Fiscal_1.pdf ,1712857046277_P97306698_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713982724425_P97316237_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>9.7299134E7</v>
+        <v>9.731167E7</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856794222_P97299134_Boleto_1.pdf ,1712856794662_P97299134_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713981258114_P97311670_Outro_Documento_1.PDF ,1713981258411_P97311670_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>9.7306923E7</v>
+        <v>9.7311808E7</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712853896804_P97306923_Nota_Fiscal_1.pdf ,1712853897105_P97306923_Boleto_2.pdf ,1712853897418_P97306923_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713983913229_P97311808_Boleto_1.PDF ,1713983914035_P97311808_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>9.7306341E7</v>
+        <v>9.7263782E7</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856660896_P97306341_Nota_Fiscal_1.PNG ,1712856661380_P97306341_Boleto_2.PNG </t>
+          <t xml:space="preserve">1713984618921_P97263782_Outro_Documento_1.jpg </t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>9.7306343E7</v>
+        <v>9.7314226E7</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855691826_P97306343_Boleto_1.pdf ,1712855692617_P97306343_Nota_Fiscal_2.pdf ,1712855693700_P97306343_opção_SIMPLES_3.pdf </t>
+          <t xml:space="preserve">1713986230965_P97314226_Nota_Fiscal_1.PDF ,1713986231271_P97314226_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>9.7320499E7</v>
+        <v>9.7298281E7</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855858066_P97320499_Boleto_1.pdf ,1712855859878_P97320499_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713987709554_P97298281_Boleto_1.pdf ,1713987709936_P97298281_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>9.7320494E7</v>
+        <v>9.7298276E7</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861228049_P97320494_Nota_Fiscal_1.jpg ,1712861229187_P97320494_Boleto_2.jpg ,1712861230137_P97320494_Boleto_3.jpg ,1712861230969_P97320494_opção_SIMPLES_4.pdf </t>
+          <t xml:space="preserve">1713987660644_P97298276_Boleto_1.pdf ,1713987661166_P97298276_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>9.7290338E7</v>
+        <v>9.7293117E7</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861176127_P97290338_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713980807154_P97293117_Nota_Fiscal_1.PDF ,1713980807427_P97293117_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>9.7320366E7</v>
+        <v>9.7312006E7</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861219836_P97320366_Nota_Fiscal_1.pdf ,1712861220251_P97320366_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713984411624_P97312006_Nota_Fiscal_1.PDF ,1713984412408_P97312006_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>9.7320434E7</v>
+        <v>9.7311727E7</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861161889_P97320434_Nota_Fiscal_1.pdf ,1712861162260_P97320434_Boleto_2.pdf ,1712861163916_P97320434_Outro_Documento_3.pdf </t>
+          <t xml:space="preserve">1713986863396_P97311727_Nota_Fiscal_1.pdf ,1713986864856_P97311727_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>9.7306489E7</v>
+        <v>9.731235E7</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855457400_P97306489_Nota_Fiscal_1.pdf ,1712855458018_P97306489_Outro_Documento_2.pdf </t>
+          <t xml:space="preserve">1713984048624_P97312350_Boleto_1.PDF ,1713984048966_P97312350_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>9.7303E7</v>
+        <v>9.7311814E7</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860323871_P97303000_Nota_Fiscal_1.jpg ,1712860324184_P97303000_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713987197915_P97311814_Boleto_1.jpg ,1713987198441_P97311814_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>9.7303587E7</v>
+        <v>9.7334256E7</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856408357_P97303587_Nota_Fiscal_1.pdf ,1712856408913_P97303587_Boleto_2.pdf ,1712856409735_P97303587_Outro_Documento_3.pdf ,1712856410847_P97303587_Outro_Documento_4.pdf ,1712856411411_P97303587_Outro_Documento_5.pdf ,1712856412336_P97303587_Outro_Documento_6.pdf </t>
+          <t xml:space="preserve">1713986311861_P97334256_Nota_Fiscal_1.pdf ,1713986312120_P97334256_opção_SIMPLES_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>9.7317327E7</v>
+        <v>9.7334295E7</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712861194140_P97317327_Nota_Fiscal_1.pdf ,1712861194715_P97317327_Boleto_2.pdf ,1712861195057_P97317327_Boleto_3.pdf ,1712861195410_P97317327_Boleto_4.pdf </t>
+          <t xml:space="preserve">1713984740318_P97334295_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>2009439.0</v>
+        <v>9.7334337E7</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858569067_C2009439_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713968131174_P97334337_Nota_Fiscal_1.pdf ,1713968131886_P97334337_Outro_Documento_2.pdf ,1713968132483_P97334337_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>2016632.0</v>
+        <v>9.7334213E7</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858333352_C2016632_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713977270833_P97334213_Nota_Fiscal_1.pdf ,1713977271877_P97334213_Outro_Documento_2.pdf ,1713977272298_P97334213_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>2012744.0</v>
+        <v>9.7334223E7</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858316318_C2012744_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713969368048_P97334223_Nota_Fiscal_1.pdf ,1713969369038_P97334223_Outro_Documento_2.pdf ,1713969369687_P97334223_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>2016633.0</v>
+        <v>9.733414E7</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858159249_C2016633_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713977034715_P97334140_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>2012743.0</v>
+        <v>9.7334235E7</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858303748_C2012743_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713979058674_P97334235_Nota_Fiscal_1.jpg ,1713979061366_P97334235_Outro_Documento_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>2012745.0</v>
+        <v>9.733418E7</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856927222_C2012745_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713973889224_P97334180_Nota_Fiscal_1.pdf ,1713973890790_P97334180_Boleto_2.pdf ,1713973891382_P97334180_Boleto_3.pdf ,1713973891915_P97334180_Boleto_4.pdf ,1713973892442_P97334180_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>2001483.0</v>
+        <v>9.7334167E7</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859885754_C2001483_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713973603487_P97334167_Nota_Fiscal_1.jpg ,1713973603854_P97334167_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>2016631.0</v>
+        <v>9.7334154E7</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858429623_C2016631_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713973597717_P97334154_Nota_Fiscal_1.pdf ,1713973598289_P97334154_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>2001819.0</v>
+        <v>9.7317376E7</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860129166_C2001819_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713972902647_P97317376_Nota_Fiscal_1.pdf ,1713972904070_P97317376_Outro_Documento_2.pdf ,1713972904664_P97317376_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>2012737.0</v>
+        <v>9.7334128E7</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860232465_C2012737_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713964709405_P97334128_Nota_Fiscal_1.pdf ,1713964711081_P97334128_Outro_Documento_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>2011333.0</v>
+        <v>9.733411E7</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860162324_C2011333_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713965828359_P97334110_Nota_Fiscal_1.pdf ,1713965828668_P97334110_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>2011344.0</v>
+        <v>9.73341E7</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859737720_C2011344_Outro_Documento_1.pdf ,1712859738651_C2011344_Nota_Fiscal_2.pdf </t>
+          <t xml:space="preserve">1713977857219_P97334100_opção_SIMPLES_1.pdf ,1713977857503_P97334100_Boleto_2.pdf ,1713977857769_P97334100_Boleto_3.pdf ,1713977858414_P97334100_Nota_Fiscal_4.pdf ,1713977859394_P97334100_Nota_Fiscal_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>2009458.0</v>
+        <v>9.7334088E7</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857843311_C2009458_Nota_Fiscal_1.jpeg </t>
+          <t xml:space="preserve">1713977776443_P97334088_opção_SIMPLES_1.pdf ,1713977776751_P97334088_Boleto_2.pdf ,1713977777099_P97334088_Nota_Fiscal_3.pdf ,1713977777437_P97334088_Nota_Fiscal_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>2011310.0</v>
+        <v>9.7334072E7</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857175014_C2011310_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713980025248_P97334072_Nota_Fiscal_1.pdf ,1713980025864_P97334072_opção_SIMPLES_2.pdf ,1713980026411_P97334072_Nota_Fiscal_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>2011311.0</v>
+        <v>9.7320013E7</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857190358_C2011311_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713985504125_P97320013_Nota_Fiscal_1.pdf ,1713985504878_P97320013_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>2005439.0</v>
+        <v>9.7317094E7</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864169890_C2005439_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713989253957_P97317094_Nota_Fiscal_1.PDF ,1713989254242_P97317094_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>2011300.0</v>
+        <v>9.7317088E7</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860342277_C2011300_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713989328230_P97317088_Nota_Fiscal_1.pdf ,1713989332440_P97317088_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>2011291.0</v>
+        <v>9.7317025E7</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864144907_C2011291_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713985605996_P97317025_Nota_Fiscal_1.PDF ,1713985606309_P97317025_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>2011293.0</v>
+        <v>9.7315208E7</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864054673_C2011293_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713980110566_P97315208_Nota_Fiscal_1.pdf ,1713980111049_P97315208_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>2011292.0</v>
+        <v>9.7311714E7</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864080749_C2011292_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713981242563_P97311714_Boleto_1.jpg ,1713981243097_P97311714_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>2011307.0</v>
+        <v>9.731468E7</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858353863_C2011307_Nota_Fiscal_1.jpg ,1712858354278_C2011307_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713985606950_P97314680_Boleto_1.pdf ,1713985607265_P97314680_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>2001471.0</v>
+        <v>9.7311791E7</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857391949_C2001471_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713984474792_P97311791_Nota_Fiscal_1.PDF ,1713984475106_P97311791_Boleto_2.PDF ,1713984475472_P97311791_Nota_Fiscal_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>2002512.0</v>
+        <v>9.7314827E7</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858762320_C2002512_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713987311866_P97314827_Nota_Fiscal_1.pdf ,1713987312309_P97314827_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>2005512.0</v>
+        <v>9.7311995E7</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858740717_C2005512_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713985829632_P97311995_Boleto_1.JPG ,1713985830036_P97311995_Orçamento_2.JPG ,1713985830834_P97311995_Nota_Fiscal_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>2005451.0</v>
+        <v>9.7312661E7</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860091439_C2005451_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713987416408_P97312661_Nota_Fiscal_1.PDF ,1713987416858_P97312661_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>2005450.0</v>
+        <v>9.7311752E7</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860105232_C2005450_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713986652516_P97311752_Nota_Fiscal_1.pdf ,1713986652988_P97311752_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>2009470.0</v>
+        <v>9.7333352E7</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856809918_C2009470_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713983322583_P97333352_Nota_Fiscal_1.pdf ,1713983324520_P97333352_Orçamento_2.pdf ,1713983325571_P97333352_Orçamento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>2009472.0</v>
+        <v>9.7333321E7</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856124251_C2009472_Boleto_1.pdf ,1712856125157_C2009472_Boleto_2.pdf </t>
+          <t xml:space="preserve">1713980768881_P97333321_Nota_Fiscal_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>2009464.0</v>
+        <v>9.7333349E7</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857156894_C2009464_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713984719702_P97333349_Orçamento_1.jpg </t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>2009429.0</v>
+        <v>9.7333344E7</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860204748_C2009429_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713984672136_P97333344_Boleto_1.jpg </t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>2001740.0</v>
+        <v>9.7333328E7</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712860356571_C2001740_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713987023252_P97333328_Boleto_1.pdf ,1713987023732_P97333328_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>2009419.0</v>
+        <v>9.7320454E7</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864097081_C2009419_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713979724295_P97320454_Nota_Fiscal_1.jpg ,1713979725715_P97320454_Boleto_2.jpg ,1713979726551_P97320454_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>2005519.0</v>
+        <v>9.7333057E7</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856784498_C2005519_Nota_Fiscal_1.JPG ,1712856785674_C2005519_Boleto_2.JPG </t>
+          <t xml:space="preserve">1713977557546_P97333057_Nota_Fiscal_1.jpg ,1713977559585_P97333057_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>2005471.0</v>
+        <v>9.733308E7</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856946910_C2005471_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713986199100_P97333080_Nota_Fiscal_1.jpg ,1713986200893_P97333080_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>2005472.0</v>
+        <v>9.7333078E7</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856979389_C2005472_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713979396837_P97333078_Nota_Fiscal_1.pdf ,1713979397174_P97333078_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>2005473.0</v>
+        <v>9.733243E7</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856963754_C2005473_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713977235868_P97332430_Nota_Fiscal_1.jpg ,1713977237620_P97332430_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>2001473.0</v>
+        <v>9.7332429E7</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857261359_C2001473_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713977743074_P97332429_Nota_Fiscal_1.pdf ,1713977744751_P97332429_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>2001733.0</v>
+        <v>9.7332412E7</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864121634_C2001733_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713976386329_P97332412_Nota_Fiscal_1.pdf ,1713976387361_P97332412_Nota_Fiscal_2.pdf ,1713976387970_P97332412_Boleto_3.pdf ,1713976388681_P97332412_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>2001750.0</v>
+        <v>9.733241E7</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858227239_C2001750_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713976406154_P97332410_Nota_Fiscal_1.pdf ,1713976406958_P97332410_Nota_Fiscal_2.pdf ,1713976407357_P97332410_Boleto_3.pdf ,1713976408237_P97332410_Outro_Documento_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>2001809.0</v>
+        <v>9.7332408E7</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856197608_C2001809_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713976439175_P97332408_Nota_Fiscal_1.pdf ,1713976439653_P97332408_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>2001821.0</v>
+        <v>9.7332387E7</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859990498_C2001821_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713976250407_P97332387_Nota_Fiscal_1.pdf ,1713976250828_P97332387_Boleto_2.pdf ,1713976251081_P97332387_Boleto_3.pdf ,1713976251578_P97332387_Boleto_4.pdf ,1713976252285_P97332387_Boleto_5.pdf ,1713976253928_P97332387_Boleto_6.pdf ,1713976254436_P97332387_Boleto_7.pdf ,1713976254706_P97332387_Boleto_8.pdf ,1713976255256_P97332387_Boleto_9.pdf ,1713976255528_P97332387_Boleto_10.pdf ,1713976255892_P97332387_opção_SIMPLES_11.pdf </t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>2001746.0</v>
+        <v>9.7332358E7</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858637536_C2001746_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713979187059_P97332358_Boleto_1.pdf ,1713979187345_P97332358_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>2001792.0</v>
+        <v>9.7332366E7</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857220356_C2001792_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713980156547_P97332366_Boleto_1.jpg ,1713980156959_P97332366_Boleto_2.jpg ,1713980157844_P97332366_Outro_Documento_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>2001789.0</v>
+        <v>9.7332436E7</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857204376_C2001789_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713980516341_P97332436_Nota_Fiscal_1.pdf ,1713980517048_P97332436_Boleto_2.pdf ,1713980517431_P97332436_Outro_Documento_3.pdf ,1713980517769_P97332436_opção_SIMPLES_4.pdf </t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>2001791.0</v>
+        <v>9.7332374E7</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857241720_C2001791_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713978947264_P97332374_Nota_Fiscal_1.pdf ,1713978947831_P97332374_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>2001848.0</v>
+        <v>9.7332405E7</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712856740088_C2001848_Nota_Fiscal_1.JPG ,1712856741814_C2001848_Nota_Fiscal_2.JPG ,1712856743127_C2001848_Boleto_3.pdf </t>
+          <t xml:space="preserve">1713979225754_P97332405_Boleto_1.pdf ,1713979226055_P97332405_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>2023156.0</v>
+        <v>9.7332409E7</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859694549_C2023156_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713976500420_P97332409_Nota_Fiscal_1.jpg ,1713976500929_P97332409_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>2001747.0</v>
+        <v>9.7332416E7</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858583607_C2001747_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713979143431_P97332416_Nota_Fiscal_1.JPG ,1713979144852_P97332416_Boleto_2.JPG </t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>2001481.0</v>
+        <v>9.7332369E7</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712855632881_C2001481_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713976583852_P97332369_Nota_Fiscal_1.jpg ,1713976584423_P97332369_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>2001779.0</v>
+        <v>9.7332386E7</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857878227_C2001779_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713979559991_P97332386_Nota_Fiscal_1.pdf ,1713979560646_P97332386_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>2001778.0</v>
+        <v>9.7317276E7</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857894912_C2001778_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713978835695_P97317276_Nota_Fiscal_1.pdf ,1713978836180_P97317276_Boleto_2.pdf ,1713978836727_P97317276_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>2001787.0</v>
+        <v>9.7332421E7</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712857427597_C2001787_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713980757094_P97332421_opção_SIMPLES_1.pdf ,1713980762452_P97332421_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>2001824.0</v>
+        <v>9.7319076E7</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859131275_C2001824_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713977875733_P97319076_Nota_Fiscal_1.pdf ,1713977876167_P97319076_Boleto_2.pdf ,1713977876593_P97319076_Outro_Documento_3.pdf ,1713977876903_P97319076_Outro_Documento_4.pdf ,1713977877670_P97319076_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>2001823.0</v>
+        <v>9.7317642E7</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859144953_C2001823_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713977832282_P97317642_Nota_Fiscal_1.pdf ,1713977832575_P97317642_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>2011294.0</v>
+        <v>9.731311E7</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712864003457_C2011294_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713977793425_P97313110_Nota_Fiscal_1.pdf ,1713977793703_P97313110_Boleto_2.pdf ,1713977794062_P97313110_Outro_Documento_3.pdf ,1713977794356_P97313110_Outro_Documento_4.pdf ,1713977795434_P97313110_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>2001485.0</v>
+        <v>9.7314983E7</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859764207_C2001485_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713979974410_P97314983_Boleto_1.jpg ,1713979975004_P97314983_Nota_Fiscal_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>1997248.0</v>
+        <v>9.7325244E7</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859823400_C1997248_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713976342066_P97325244_Nota_Fiscal_1.pdf ,1713976342682_P97325244_Boleto_2.pdf ,1713976343501_P97325244_Outro_Documento_3.pdf ,1713976344077_P97325244_Outro_Documento_4.pdf ,1713976344925_P97325244_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>1997247.0</v>
+        <v>9.7319067E7</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859856298_C1997247_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713976960066_P97319067_Nota_Fiscal_1.pdf ,1713976960385_P97319067_Boleto_2.pdf ,1713976960913_P97319067_Outro_Documento_3.pdf ,1713976961465_P97319067_Outro_Documento_4.pdf ,1713976961746_P97319067_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>1997236.0</v>
+        <v>9.7332456E7</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712858261682_C1997236_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713978780988_P97332456_Nota_Fiscal_1.pdf ,1713978783525_P97332456_Orçamento_2.pdf ,1713978783869_P97332456_Nota_Fiscal_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>2001484.0</v>
+        <v>9.731698E7</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712859791836_C2001484_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713981544921_P97316980_Nota_Fiscal_1.pdf ,1713981545380_P97316980_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>2003401.0</v>
+        <v>9.7313153E7</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712773621314_C2003401_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713976300207_P97313153_Nota_Fiscal_1.pdf ,1713976300500_P97313153_Boleto_2.pdf ,1713976301162_P97313153_Outro_Documento_3.pdf ,1713976301862_P97313153_Outro_Documento_4.pdf ,1713976302310_P97313153_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>1997242.0</v>
+        <v>9.7311343E7</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712773796049_C1997242_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713976922182_P97311343_Nota_Fiscal_1.pdf ,1713976922593_P97311343_Boleto_2.pdf ,1713976923322_P97311343_Outro_Documento_3.pdf ,1713976923871_P97311343_Outro_Documento_4.pdf ,1713976924308_P97311343_Outro_Documento_5.pdf </t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>1996303.0</v>
+        <v>9.7311843E7</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712689695626_C1996303_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713976069881_P97311843_Nota_Fiscal_1.jpg ,1713976070831_P97311843_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>1996354.0</v>
+        <v>9.7332344E7</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712769927894_C1996354_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713981706071_P97332344_Nota_Fiscal_1.pdf ,1713981706826_P97332344_Boleto_2.pdf ,1713981707266_P97332344_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>1996353.0</v>
+        <v>9.7332342E7</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712769902506_C1996353_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713981658062_P97332342_Nota_Fiscal_1.pdf ,1713981659725_P97332342_Boleto_2.pdf ,1713981660723_P97332342_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>2001258.0</v>
+        <v>9.7332338E7</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712692233346_C2001258_Outro_Documento_1.jpg ,1712692234351_C2001258_Outro_Documento_2.jpg </t>
+          <t xml:space="preserve">1713979264963_P97332338_Boleto_1.pdf ,1713979265331_P97332338_Nota_Fiscal_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>2001712.0</v>
+        <v>9.7332349E7</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712691678286_C2001712_Nota_Fiscal_1.jpg </t>
+          <t xml:space="preserve">1713982849206_P97332349_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>1994903.0</v>
+        <v>9.731754E7</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712690017511_C1994903_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713980213488_P97317540_Nota_Fiscal_1.pdf ,1713980213920_P97317540_Boleto_2.pdf ,1713980214190_P97317540_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>1996319.0</v>
+        <v>9.7332343E7</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712774207035_C1996319_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713980033504_P97332343_Nota_Fiscal_1.jpg ,1713980036102_P97332343_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>2012741.0</v>
+        <v>9.7332165E7</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712769720407_C2012741_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713980303391_P97332165_Nota_Fiscal_1.pdf ,1713980303624_P97332165_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>2012740.0</v>
+        <v>9.7317316E7</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712769735866_C2012740_Outro_Documento_1.pdf </t>
+          <t xml:space="preserve">1713978709838_P97317316_Nota_Fiscal_1.pdf ,1713978710639_P97317316_Boleto_2.pdf ,1713978710929_P97317316_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>2009447.0</v>
+        <v>9.7332314E7</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712775478532_C2009447_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713979452764_P97332314_Nota_Fiscal_1.pdf ,1713979453447_P97332314_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>2001468.0</v>
+        <v>9.7332302E7</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712775491713_C2001468_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713982288273_P97332302_Nota_Fiscal_1.jpg ,1713982289191_P97332302_Boleto_2.jpg </t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>1996314.0</v>
+        <v>9.7317533E7</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712689997556_C1996314_Boleto_1.jpg </t>
+          <t xml:space="preserve">1713976812883_P97317533_opção_SIMPLES_1.pdf ,1713976815112_P97317533_Nota_Fiscal_2.jpg ,1713976817231_P97317533_Boleto_3.jpg </t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>2001727.0</v>
+        <v>9.7332181E7</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712681808304_C2001727_Boleto_1.jpg ,1712681809043_C2001727_Boleto_2.jpg </t>
+          <t xml:space="preserve">1713981742803_P97332181_Nota_Fiscal_1.pdf ,1713981744576_P97332181_Boleto_2.pdf ,1713981745240_P97332181_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>2009479.0</v>
+        <v>9.7332173E7</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712770510616_C2009479_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713981119755_P97332173_Nota_Fiscal_1.pdf ,1713981120356_P97332173_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>1996334.0</v>
+        <v>2020860.0</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712770290086_C1996334_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713979113643_C2020860_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>2001847.0</v>
+        <v>9.7332327E7</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712773389703_C2001847_Nota_Fiscal_1.pdf </t>
+          <t xml:space="preserve">1713977607041_P97332327_Nota_Fiscal_1.PNG ,1713977607620_P97332327_Boleto_2.PNG ,1713977608450_P97332327_Boleto_3.PNG ,1713977608996_P97332327_Boleto_4.PNG </t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>9.7282923E7</v>
+        <v>9.7332326E7</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862127482_P97282923_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713976844033_P97332326_Nota_Fiscal_1.pdf ,1713976844814_P97332326_Boleto_2.pdf </t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>9.7282974E7</v>
+        <v>9.7317389E7</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862079369_P97282974_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713977740131_P97317389_Nota_Fiscal_1.pdf ,1713977740544_P97317389_Boleto_2.pdf ,1713977740814_P97317389_opção_SIMPLES_3.pdf </t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>9.7282931E7</v>
+        <v>9.7332307E7</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862214778_P97282931_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713976130189_P97332307_Nota_Fiscal_1.pdf ,1713976131790_P97332307_Boleto_2.pdf ,1713976132711_P97332307_Boleto_3.pdf ,1713976133488_P97332307_Boleto_4.pdf ,1713976134332_P97332307_Boleto_5.pdf ,1713976135398_P97332307_Boleto_6.pdf ,1713976137056_P97332307_Boleto_7.pdf </t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>9.7282924E7</v>
+        <v>9.7332351E7</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862173466_P97282924_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713976170954_P97332351_Nota_Fiscal_1.pdf ,1713976171652_P97332351_Boleto_2.pdf ,1713976173490_P97332351_Boleto_3.pdf ,1713976174268_P97332351_Boleto_4.pdf ,1713976175157_P97332351_Boleto_5.pdf ,1713976176745_P97332351_Boleto_6.pdf ,1713976178638_P97332351_Boleto_7.pdf ,1713976179055_P97332351_opção_SIMPLES_8.pdf </t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>9.7282926E7</v>
+        <v>9.731714E7</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712862024371_P97282926_Boleto_1.pdf </t>
+          <t xml:space="preserve">1713975980385_P97317140_Nota_Fiscal_1.pdf ,1713975980807_P97317140_Boleto_2.pdf ,1713975981729_P97317140_opção_SIMPLES_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="n">
+        <v>9.7317092E7</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980392116_P97317092_Boleto_1.jpg ,1713980392552_P97317092_Nota_Fiscal_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="n">
+        <v>9.7315429E7</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713800233928_P97315429_Nota_Fiscal_1.pdf ,1713800234797_P97315429_Boleto_2.pdf ,1713800235866_P97315429_opção_SIMPLES_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="n">
+        <v>9.7331899E7</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981268467_P97331899_Nota_Fiscal_1.pdf ,1713981268799_P97331899_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="n">
+        <v>9.7316882E7</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713976544236_P97316882_Nota_Fiscal_1.pdf ,1713976544670_P97316882_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="n">
+        <v>9.7315325E7</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984819382_P97315325_Outro_Documento_1.PDF ,1713984819919_P97315325_Outro_Documento_2.pdf ,1713984821961_P97315325_Nota_Fiscal_3.pdf ,1713984822649_P97315325_Outro_Documento_4.pdf ,1713984822918_P97315325_Nota_Fiscal_5.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="n">
+        <v>9.7331664E7</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980368356_P97331664_Nota_Fiscal_1.pdf ,1713980368624_P97331664_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="n">
+        <v>9.7331661E7</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980380973_P97331661_Nota_Fiscal_1.pdf ,1713980381227_P97331661_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="n">
+        <v>9.7331679E7</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980375040_P97331679_Nota_Fiscal_1.pdf ,1713980375328_P97331679_opção_SIMPLES_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="n">
+        <v>9.7331658E7</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980067700_P97331658_Nota_Fiscal_1.pdf ,1713980068419_P97331658_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="n">
+        <v>9.7331657E7</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980058051_P97331657_Nota_Fiscal_1.pdf ,1713980058605_P97331657_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="n">
+        <v>9.733165E7</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980062562_P97331650_Nota_Fiscal_1.pdf ,1713980063263_P97331650_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n">
+        <v>9.7331639E7</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979755928_P97331639_Boleto_1.JPG ,1713979757740_P97331639_Nota_Fiscal_2.jpg ,1713979759548_P97331639_Nota_Fiscal_3.HEIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n">
+        <v>9.7317568E7</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713972538459_P97317568_Nota_Fiscal_1.pdf ,1713972541163_P97317568_Boleto_2.pdf ,1713972542257_P97317568_opção_SIMPLES_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="n">
+        <v>9.7317109E7</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979419821_P97317109_Nota_Fiscal_1.PDF </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="n">
+        <v>9.7331637E7</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979415145_P97331637_Nota_Fiscal_1.PDF ,1713979415577_P97331637_Boleto_2.PDF </t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="n">
+        <v>9.7316728E7</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979373308_P97316728_Nota_Fiscal_1.pdf ,1713979373692_P97316728_Boleto_2.pdf ,1713979373966_P97316728_opção_SIMPLES_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="n">
+        <v>9.7331744E7</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983908470_P97331744_Nota_Fiscal_1.pdf ,1713983908822_P97331744_Boleto_2.pdf ,1713983909111_P97331744_Boleto_3.pdf ,1713983909405_P97331744_Boleto_4.pdf ,1713983909691_P97331744_Boleto_5.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="n">
+        <v>9.7331725E7</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980752285_P97331725_Nota_Fiscal_1.pdf ,1713980752751_P97331725_opção_SIMPLES_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="n">
+        <v>9.7331555E7</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713881846070_P97331555_Nota_Fiscal_1.pdf ,1713881847433_P97331555_opção_SIMPLES_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="n">
+        <v>9.7331291E7</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980040549_P97331291_Nota_Fiscal_1.jpg ,1713980041025_P97331291_Nota_Fiscal_2.jpg ,1713980041779_P97331291_Boleto_3.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="n">
+        <v>9.733129E7</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979716067_P97331290_Nota_Fiscal_1.jpg ,1713979717564_P97331290_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="n">
+        <v>9.7331299E7</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980744483_P97331299_Nota_Fiscal_1.pdf ,1713980745916_P97331299_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="n">
+        <v>9.7331316E7</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713815727169_P97331316_Nota_Fiscal_1.jpg ,1713815727983_P97331316_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="n">
+        <v>9.7331347E7</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980034816_P97331347_Nota_Fiscal_1.pdf ,1713980035198_P97331347_Boleto_2.pdf ,1713980035608_P97331347_Boleto_3.pdf ,1713980036102_P97331347_Boleto_4.pdf ,1713980036429_P97331347_Boleto_5.pdf ,1713980036681_P97331347_opção_SIMPLES_6.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="n">
+        <v>9.7331362E7</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980053257_P97331362_Nota_Fiscal_1.pdf ,1713980053502_P97331362_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="n">
+        <v>9.7331375E7</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981250757_P97331375_Nota_Fiscal_1.jpg ,1713981252356_P97331375_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="n">
+        <v>9.7331108E7</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713878321322_P97331108_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="n">
+        <v>9.731699E7</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980264399_P97316990_Nota_Fiscal_1.pdf ,1713980264777_P97316990_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="n">
+        <v>9.7309754E7</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981045440_P97309754_Nota_Fiscal_1.pdf ,1713981046394_P97309754_Boleto_2.pdf ,1713981046792_P97309754_Nota_Fiscal_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="n">
+        <v>9.7316838E7</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713977914488_P97316838_Nota_Fiscal_1.pdf ,1713977914983_P97316838_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="n">
+        <v>9.7316811E7</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978125710_P97316811_Nota_Fiscal_1.pdf ,1713978126123_P97316811_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="n">
+        <v>9.7316806E7</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978090533_P97316806_Nota_Fiscal_1.pdf ,1713978090964_P97316806_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="n">
+        <v>9.7316801E7</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978171016_P97316801_Nota_Fiscal_1.pdf ,1713978171877_P97316801_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="n">
+        <v>9.7316796E7</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978205162_P97316796_Nota_Fiscal_1.pdf ,1713978205471_P97316796_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="n">
+        <v>9.7316822E7</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978011214_P97316822_Nota_Fiscal_1.pdf ,1713978011500_P97316822_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="n">
+        <v>9.7316818E7</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713977971887_P97316818_Nota_Fiscal_1.pdf ,1713977972167_P97316818_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="n">
+        <v>9.7316871E7</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979075690_P97316871_Nota_Fiscal_1.pdf ,1713979076006_P97316871_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="n">
+        <v>2024706.0</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986521818_C2024706_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="n">
+        <v>9.7316867E7</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981787959_P97316867_Nota_Fiscal_1.pdf ,1713981788364_P97316867_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="n">
+        <v>9.731251E7</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979664585_P97312510_Nota_Fiscal_1.pdf ,1713979665307_P97312510_Boleto_2.pdf ,1713979666045_P97312510_Outro_Documento_3.pdf ,1713979666598_P97312510_Nota_Fiscal_4.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="n">
+        <v>9.7269249E7</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979759889_P97269249_Nota_Fiscal_1.pdf ,1713979760444_P97269249_Boleto_2.pdf ,1713979760801_P97269249_Outro_Documento_3.pdf ,1713979761189_P97269249_Nota_Fiscal_4.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="n">
+        <v>9.7316921E7</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979915575_P97316921_Nota_Fiscal_1.pdf ,1713979916183_P97316921_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="n">
+        <v>9.7316906E7</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979830701_P97316906_Nota_Fiscal_1.pdf ,1713979832469_P97316906_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="n">
+        <v>9.7316899E7</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979870573_P97316899_Nota_Fiscal_1.pdf ,1713979871099_P97316899_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="n">
+        <v>9.7311052E7</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713977507796_P97311052_Nota_Fiscal_1.pdf ,1713977508118_P97311052_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="n">
+        <v>9.7311061E7</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713977470666_P97311061_Nota_Fiscal_1.pdf ,1713977471008_P97311061_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="n">
+        <v>9.7311078E7</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713977437567_P97311078_Nota_Fiscal_1.pdf ,1713977438142_P97311078_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="n">
+        <v>9.7311066E7</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713977354289_P97311066_Nota_Fiscal_1.pdf ,1713977354714_P97311066_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="n">
+        <v>9.7310939E7</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713976758632_P97310939_Nota_Fiscal_1.pdf ,1713976759058_P97310939_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="n">
+        <v>9.7310932E7</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713976722443_P97310932_Nota_Fiscal_1.pdf ,1713976723032_P97310932_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="n">
+        <v>2035302.0</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983517618_C2035302_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="n">
+        <v>2024713.0</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986382007_C2024713_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="n">
+        <v>9.7308307E7</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713987552891_P97308307_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="n">
+        <v>9.7308231E7</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984453223_P97308231_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="n">
+        <v>9.7324431E7</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713990135519_P97324431_Boleto_1.pdf ,1713990135890_P97324431_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="n">
+        <v>9.7320336E7</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985155643_P97320336_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="n">
+        <v>9.7311371E7</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984663275_P97311371_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="n">
+        <v>2035488.0</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983639190_C2035488_Boleto_1.pdf ,1713983639757_C2035488_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="n">
+        <v>2034583.0</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984462171_C2034583_Boleto_1.jpg ,1713984463618_C2034583_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="n">
+        <v>2034412.0</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982777983_C2034412_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="n">
+        <v>2029550.0</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986957407_C2029550_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="n">
+        <v>2029552.0</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983042284_C2029552_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="n">
+        <v>2029562.0</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981108901_C2029562_Boleto_1.jpg ,1713981110837_C2029562_Boleto_2.jpg ,1713981111359_C2029562_Boleto_3.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="n">
+        <v>2029629.0</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984384595_C2029629_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="n">
+        <v>2029624.0</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984419385_C2029624_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="n">
+        <v>2029653.0</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980403939_C2029653_Outro_Documento_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="n">
+        <v>2026648.0</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980866231_C2026648_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="n">
+        <v>2029652.0</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980484486_C2029652_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="n">
+        <v>2035482.0</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983659291_C2035482_Nota_Fiscal_1.jpeg ,1713983660832_C2035482_Boleto_2.jpeg </t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3" t="n">
+        <v>2035479.0</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983687409_C2035479_Nota_Fiscal_1.pdf ,1713983688108_C2035479_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3" t="n">
+        <v>2029560.0</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981470288_C2029560_Outro_Documento_1.pdf ,1713981470730_C2029560_Outro_Documento_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="n">
+        <v>9.7303215E7</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713990078284_P97303215_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="n">
+        <v>2034421.0</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983539957_C2034421_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="n">
+        <v>2029559.0</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981525060_C2029559_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3" t="n">
+        <v>2029569.0</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981045138_C2029569_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3" t="n">
+        <v>2034563.0</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986631386_C2034563_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3" t="n">
+        <v>2029574.0</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980909190_C2029574_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3" t="n">
+        <v>2034819.0</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980633533_C2034819_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3" t="n">
+        <v>2028249.0</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980120271_C2028249_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3" t="n">
+        <v>2029591.0</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978582961_C2029591_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="n">
+        <v>2034815.0</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980894285_C2034815_Nota_Fiscal_1.pdf ,1713980894585_C2034815_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3" t="n">
+        <v>2034574.0</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979090439_C2034574_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3" t="n">
+        <v>2027311.0</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980175637_C2027311_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="n">
+        <v>2034806.0</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981017904_C2034806_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="n">
+        <v>2034573.0</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985167123_C2034573_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="n">
+        <v>2034856.0</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982961938_C2034856_Nota_Fiscal_1.JPG ,1713982962560_C2034856_Boleto_2.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3" t="n">
+        <v>2029549.0</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983116883_C2029549_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="n">
+        <v>2029649.0</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980822635_C2029649_Nota_Fiscal_1.jpg ,1713980824563_C2029649_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="n">
+        <v>2025718.0</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986809942_C2025718_Boleto_1.pdf ,1713986810815_C2025718_Nota_Fiscal_2.pdf ,1713986811634_C2025718_Nota_Fiscal_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="n">
+        <v>2034801.0</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981595282_C2034801_Boleto_1.pdf ,1713981596302_C2034801_Nota_Fiscal_2.pdf ,1713981599752_C2034801_Nota_Fiscal_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="n">
+        <v>2028240.0</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983163351_C2028240_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3" t="n">
+        <v>2029561.0</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981366468_C2029561_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="n">
+        <v>2034826.0</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978917471_C2034826_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3" t="n">
+        <v>2028251.0</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980152897_C2028251_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3" t="n">
+        <v>2028245.0</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982934505_C2028245_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="n">
+        <v>2028250.0</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980139528_C2028250_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="n">
+        <v>2023404.0</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983339234_C2023404_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3" t="n">
+        <v>2034571.0</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980423999_C2034571_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3" t="n">
+        <v>2029558.0</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981681125_C2029558_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3" t="n">
+        <v>2029583.0</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978990463_C2029583_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3" t="n">
+        <v>2029584.0</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979043593_C2029584_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="3" t="n">
+        <v>2027309.0</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985885841_C2027309_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="n">
+        <v>2028220.0</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981503774_C2028220_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="n">
+        <v>2025816.0</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986793636_C2025816_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="n">
+        <v>2027312.0</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985090704_C2027312_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="n">
+        <v>2023438.0</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980930035_C2023438_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="n">
+        <v>2024919.0</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980387131_C2024919_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="n">
+        <v>2034820.0</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980447991_C2034820_Outro_Documento_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="n">
+        <v>2025721.0</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986767240_C2025721_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="n">
+        <v>2029347.0</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985351818_C2029347_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="n">
+        <v>2029662.0</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985335282_C2029662_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="n">
+        <v>2033473.0</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980766470_C2033473_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="n">
+        <v>9.732159E7</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984496576_P97321590_Nota_Fiscal_1.pdf ,1713984496894_P97321590_Boleto_2.pdf ,1713984497237_P97321590_Boleto_3.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="n">
+        <v>2029668.0</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984440926_C2029668_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="n">
+        <v>2025739.0</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985128682_C2025739_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="n">
+        <v>2025780.0</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986585595_C2025780_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="n">
+        <v>2024719.0</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985996439_C2024719_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="n">
+        <v>2029557.0</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986864521_C2029557_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="n">
+        <v>2025744.0</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984902959_C2025744_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="n">
+        <v>2034584.0</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984302236_C2034584_Nota_Fiscal_1.jpg ,1713984302975_C2034584_Outro_Documento_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="n">
+        <v>2026651.0</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980612363_C2026651_Nota_Fiscal_1.HEIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="n">
+        <v>2024900.0</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981563431_C2024900_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="n">
+        <v>2029607.0</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984534462_C2029607_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="n">
+        <v>9.7320535E7</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713987288896_P97320535_Nota_Fiscal_1.pdf ,1713987289316_P97320535_Boleto_2.pdf ,1713987289792_P97320535_Boleto_3.pdf ,1713987290520_P97320535_Boleto_4.pdf ,1713987291086_P97320535_opção_SIMPLES_5.pdf ,1713987291934_P97320535_Outro_Documento_6.pdf ,1713987292228_P97320535_Nota_Fiscal_7.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="n">
+        <v>2023403.0</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983356056_C2023403_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="n">
+        <v>2029564.0</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986692269_C2029564_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="n">
+        <v>2034566.0</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980974845_C2034566_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="n">
+        <v>2033625.0</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984149037_C2033625_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="n">
+        <v>2029325.0</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981650382_C2029325_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="n">
+        <v>2034568.0</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986610739_C2034568_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="n">
+        <v>9.7319483E7</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986685668_P97319483_opção_SIMPLES_1.pdf ,1713986687133_P97319483_Outro_Documento_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="n">
+        <v>2034592.0</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980466777_C2034592_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="n">
+        <v>2029588.0</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984979761_C2029588_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="n">
+        <v>2023421.0</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981781411_C2023421_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="n">
+        <v>2029606.0</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984488058_C2029606_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="n">
+        <v>2029605.0</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984555437_C2029605_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="n">
+        <v>2023449.0</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713978952831_C2023449_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="n">
+        <v>2023420.0</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981830813_C2023420_Outro_Documento_1.jpg ,1713981831467_C2023420_Outro_Documento_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="n">
+        <v>2034555.0</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983266066_C2034555_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="n">
+        <v>2024901.0</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981124754_C2024901_Boleto_1.jpg ,1713981125766_C2024901_Boleto_2.jpg ,1713981126350_C2024901_Boleto_3.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="n">
+        <v>2024702.0</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986830871_C2024702_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="n">
+        <v>2024703.0</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986844986_C2024703_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="n">
+        <v>2021577.0</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980842435_C2021577_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="n">
+        <v>9.7319346E7</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984969172_P97319346_Nota_Fiscal_1.pdf ,1713984970742_P97319346_Boleto_2.pdf ,1713984971055_P97319346_opção_SIMPLES_3.pdf ,1713984971467_P97319346_Outro_Documento_4.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="n">
+        <v>2028231.0</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980328937_C2028231_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="n">
+        <v>2028232.0</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980307377_C2028232_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="n">
+        <v>2028230.0</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980363957_C2028230_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="n">
+        <v>2023431.0</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981381184_C2023431_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="n">
+        <v>2023455.0</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984760691_C2023455_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="n">
+        <v>2025754.0</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984723697_C2025754_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="n">
+        <v>2025751.0</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984788842_C2025751_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="n">
+        <v>2025753.0</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984704036_C2025753_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="n">
+        <v>2025713.0</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986885682_C2025713_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="n">
+        <v>2023435.0</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980996509_C2023435_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="n">
+        <v>2024717.0</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985931642_C2024717_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="n">
+        <v>2029324.0</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981733601_C2029324_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="n">
+        <v>2029331.0</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981091944_C2029331_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="n">
+        <v>2025712.0</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986915538_C2025712_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="n">
+        <v>2021581.0</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980678304_C2021581_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="n">
+        <v>2025714.0</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986902123_C2025714_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="n">
+        <v>2028233.0</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980281523_C2028233_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="n">
+        <v>2024658.0</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985745386_C2024658_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="n">
+        <v>2024654.0</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985449881_C2024654_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="n">
+        <v>2024655.0</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985730248_C2024655_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="n">
+        <v>2024656.0</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985423646_C2024656_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="n">
+        <v>2024657.0</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985762412_C2024657_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="n">
+        <v>2023479.0</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980246071_C2023479_Outro_Documento_1.jpg ,1713980246804_C2023479_Outro_Documento_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="n">
+        <v>2024718.0</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985975741_C2024718_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="n">
+        <v>2025728.0</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986654660_C2025728_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="n">
+        <v>2025785.0</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985824712_C2025785_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="n">
+        <v>2025766.0</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984331949_C2025766_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="n">
+        <v>2021815.0</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980804982_C2021815_Outro_Documento_1.pdf ,1713980805891_C2021815_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="n">
+        <v>2023472.0</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986045330_C2023472_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="n">
+        <v>2023473.0</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986027684_C2023473_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="n">
+        <v>2021807.0</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713979071990_C2021807_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="n">
+        <v>2025741.0</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985013215_C2025741_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="n">
+        <v>2023524.0</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982996859_C2023524_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="n">
+        <v>2023413.0</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983072490_C2023413_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="n">
+        <v>2023419.0</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981902595_C2023419_Nota_Fiscal_1.jpg ,1713981903055_C2023419_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3" t="n">
+        <v>2025784.0</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985839971_C2025784_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3" t="n">
+        <v>2025781.0</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986487589_C2025781_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3" t="n">
+        <v>2025820.0</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985236579_C2025820_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3" t="n">
+        <v>2024707.0</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986562123_C2024707_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3" t="n">
+        <v>2025738.0</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985256503_C2025738_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3" t="n">
+        <v>2021820.0</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985909634_C2021820_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3" t="n">
+        <v>2025869.0</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984209241_C2025869_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="3" t="n">
+        <v>2018701.0</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980727911_C2018701_Nota_Fiscal_1.jpg ,1713980730068_C2018701_Outro_Documento_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="3" t="n">
+        <v>2018483.0</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986407634_C2018483_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="3" t="n">
+        <v>2024710.0</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986457038_C2024710_Nota_Fiscal_1.jpg ,1713986458074_C2024710_Nota_Fiscal_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="3" t="n">
+        <v>2025700.0</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986980208_C2025700_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3" t="n">
+        <v>2025701.0</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986994658_C2025701_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="3" t="n">
+        <v>9.7317166E7</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985021872_P97317166_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="3" t="n">
+        <v>2021821.0</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980219686_C2021821_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="3" t="n">
+        <v>2023453.0</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984811285_C2023453_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="3" t="n">
+        <v>2025695.0</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713987011554_C2025695_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="3" t="n">
+        <v>2025745.0</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984934410_C2025745_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="3" t="n">
+        <v>2025783.0</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985857475_C2025783_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="3" t="n">
+        <v>2025749.0</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984862210_C2025749_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="3" t="n">
+        <v>2021818.0</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980701875_C2021818_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="3" t="n">
+        <v>2025782.0</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986310446_C2025782_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="3" t="n">
+        <v>2020858.0</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980198626_C2020858_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="3" t="n">
+        <v>2023467.0</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984277482_C2023467_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="3" t="n">
+        <v>2018607.0</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982802156_C2018607_Nota_Fiscal_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="3" t="n">
+        <v>2023468.0</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984247888_C2023468_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="3" t="n">
+        <v>2023471.0</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986352611_C2023471_Outro_Documento_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="3" t="n">
+        <v>2018599.0</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982600185_C2018599_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="3" t="n">
+        <v>2021806.0</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985056848_C2021806_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="3" t="n">
+        <v>2020861.0</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985218828_C2020861_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="3" t="n">
+        <v>2020811.0</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986714755_C2020811_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="3" t="n">
+        <v>2018603.0</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980660544_C2018603_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="3" t="n">
+        <v>2018696.0</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713982057888_C2018696_Outro_Documento_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="3" t="n">
+        <v>2023432.0</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986733512_C2023432_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="3" t="n">
+        <v>2020815.0</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986212000_C2020815_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="3" t="n">
+        <v>2017328.0</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981931228_C2017328_Nota_Fiscal_1.jpg ,1713981931686_C2017328_Boleto_2.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="3" t="n">
+        <v>2016349.0</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713980782557_C2016349_Boleto_1.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="3" t="n">
+        <v>9.7310775E7</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713969084523_P97310775_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="3" t="n">
+        <v>9.7310761E7</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713989010664_P97310761_Nota_Fiscal_1.jpg ,1713989011168_P97310761_Boleto_2.jpg ,1713989011586_P97310761_Boleto_3.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="3" t="n">
+        <v>2019619.0</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713983241512_C2019619_Outro_Documento_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="3" t="n">
+        <v>2018711.0</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713981075576_C2018711_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="3" t="n">
+        <v>2029554.0</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986939873_C2029554_Nota_Fiscal_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="3" t="n">
+        <v>9.7294057E7</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984426388_P97294057_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="3" t="n">
+        <v>9.7291492E7</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985127399_P97291492_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="3" t="n">
+        <v>9.7290101E7</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713984397398_P97290101_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="3" t="n">
+        <v>9.728992E7</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713990181652_P97289920_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="3" t="n">
+        <v>9.7261507E7</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713969029865_P97261507_Boleto_1.pdf ,1713969031301_P97261507_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="3" t="n">
+        <v>9.7275443E7</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713989906336_P97275443_Nota_Fiscal_1.pdf ,1713989906855_P97275443_Boleto_2.pdf ,1713989907142_P97275443_Boleto_3.pdf ,1713989907608_P97275443_Boleto_4.pdf ,1713989908109_P97275443_Boleto_5.pdf ,1713989908486_P97275443_Boleto_6.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="3" t="n">
+        <v>9.7263934E7</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713988965275_P97263934_Nota_Fiscal_1.pdf ,1713988965947_P97263934_Boleto_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="3" t="n">
+        <v>9.7256804E7</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713987112149_P97256804_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="3" t="n">
+        <v>9.7251671E7</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985456924_P97251671_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="3" t="n">
+        <v>9.725089E7</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713989836886_P97250890_opção_SIMPLES_1.pdf ,1713989837505_P97250890_Nota_Fiscal_2.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="3" t="n">
+        <v>9.7249627E7</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713989321675_P97249627_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="3" t="n">
+        <v>9.7248792E7</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713986597943_P97248792_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="3" t="n">
+        <v>9.7241301E7</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713985268763_P97241301_Boleto_1.pdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="3" t="n">
+        <v>9.7234279E7</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1713987400714_P97234279_Boleto_1.pdf </t>
         </is>
       </c>
     </row>
